--- a/raw_data/20200818_saline/20200818_Sensor2_Test_22.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_22.xlsx
@@ -1,825 +1,1241 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2917901C-BDD2-410C-947C-748CA47E74FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>19271.362812</v>
+        <v>19271.362811999999</v>
       </c>
       <c r="B2" s="1">
-        <v>5.353156</v>
+        <v>5.3531560000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1239.790000</v>
+        <v>1239.79</v>
       </c>
       <c r="D2" s="1">
-        <v>-305.209000</v>
+        <v>-305.209</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>19281.725726</v>
+        <v>19281.725726000001</v>
       </c>
       <c r="G2" s="1">
-        <v>5.356035</v>
+        <v>5.3560350000000003</v>
       </c>
       <c r="H2" s="1">
-        <v>1265.100000</v>
+        <v>1265.0999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-263.152000</v>
+        <v>-263.15199999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>19291.964930</v>
+        <v>19291.964929999998</v>
       </c>
       <c r="L2" s="1">
-        <v>5.358879</v>
+        <v>5.3588789999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1299.570000</v>
+        <v>1299.57</v>
       </c>
       <c r="N2" s="1">
-        <v>-200.974000</v>
+        <v>-200.97399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>19302.095460</v>
+        <v>19302.09546</v>
       </c>
       <c r="Q2" s="1">
-        <v>5.361693</v>
+        <v>5.3616929999999998</v>
       </c>
       <c r="R2" s="1">
-        <v>1310.790000</v>
+        <v>1310.79</v>
       </c>
       <c r="S2" s="1">
-        <v>-183.290000</v>
+        <v>-183.29</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>19312.352234</v>
+        <v>19312.352234000002</v>
       </c>
       <c r="V2" s="1">
-        <v>5.364542</v>
+        <v>5.3645420000000001</v>
       </c>
       <c r="W2" s="1">
-        <v>1323.470000</v>
+        <v>1323.47</v>
       </c>
       <c r="X2" s="1">
-        <v>-169.957000</v>
+        <v>-169.95699999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>19322.465624</v>
       </c>
       <c r="AA2" s="1">
-        <v>5.367352</v>
+        <v>5.3673520000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1340.460000</v>
+        <v>1340.46</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.048000</v>
+        <v>-168.048</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>19332.727366</v>
+        <v>19332.727365999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>5.370202</v>
+        <v>5.3702019999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1353.180000</v>
+        <v>1353.18</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.297000</v>
+        <v>-178.297</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>19343.144862</v>
+        <v>19343.144862000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>5.373096</v>
+        <v>5.3730960000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>1373.610000</v>
+        <v>1373.61</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.437000</v>
+        <v>-208.43700000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>19353.779055</v>
+        <v>19353.779054999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>5.376050</v>
+        <v>5.3760500000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1395.300000</v>
+        <v>1395.3</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.689000</v>
+        <v>-252.68899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>19364.772386</v>
+        <v>19364.772386000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>5.379103</v>
+        <v>5.3791029999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>1419.980000</v>
+        <v>1419.98</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.941000</v>
+        <v>-312.94099999999997</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>19376.293489</v>
       </c>
       <c r="AZ2" s="1">
-        <v>5.382304</v>
+        <v>5.3823040000000004</v>
       </c>
       <c r="BA2" s="1">
-        <v>1439.400000</v>
+        <v>1439.4</v>
       </c>
       <c r="BB2" s="1">
-        <v>-365.233000</v>
+        <v>-365.233</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>19387.344819</v>
+        <v>19387.344819000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>5.385374</v>
+        <v>5.3853739999999997</v>
       </c>
       <c r="BF2" s="1">
-        <v>1525.340000</v>
+        <v>1525.34</v>
       </c>
       <c r="BG2" s="1">
-        <v>-613.996000</v>
+        <v>-613.99599999999998</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>19398.449252</v>
+        <v>19398.449251999999</v>
       </c>
       <c r="BJ2" s="1">
         <v>5.388458</v>
       </c>
       <c r="BK2" s="1">
-        <v>1680.730000</v>
+        <v>1680.73</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1059.100000</v>
+        <v>-1059.0999999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>19410.285781</v>
+        <v>19410.285780999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>5.391746</v>
+        <v>5.3917460000000004</v>
       </c>
       <c r="BP2" s="1">
-        <v>1976.960000</v>
+        <v>1976.96</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1829.310000</v>
+        <v>-1829.31</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>19421.832645</v>
+        <v>19421.832644999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>5.394954</v>
+        <v>5.3949540000000002</v>
       </c>
       <c r="BU2" s="1">
-        <v>2368.360000</v>
+        <v>2368.36</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2715.660000</v>
+        <v>-2715.66</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>19432.436616</v>
+        <v>19432.436615999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>5.397899</v>
+        <v>5.3978989999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2853.990000</v>
+        <v>2853.99</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3686.030000</v>
+        <v>-3686.03</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>19443.775193</v>
+        <v>19443.775193000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>5.401049</v>
+        <v>5.4010490000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>4295.780000</v>
+        <v>4295.78</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6013.060000</v>
+        <v>-6013.06</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>19271.750717</v>
+        <v>19271.750716999999</v>
       </c>
       <c r="B3" s="1">
-        <v>5.353264</v>
+        <v>5.3532640000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>1239.940000</v>
+        <v>1239.94</v>
       </c>
       <c r="D3" s="1">
-        <v>-305.471000</v>
+        <v>-305.471</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>19282.157246</v>
+        <v>19282.157245999999</v>
       </c>
       <c r="G3" s="1">
-        <v>5.356155</v>
+        <v>5.3561550000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1265.230000</v>
+        <v>1265.23</v>
       </c>
       <c r="I3" s="1">
-        <v>-263.400000</v>
+        <v>-263.39999999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>19292.316801</v>
+        <v>19292.316801000001</v>
       </c>
       <c r="L3" s="1">
-        <v>5.358977</v>
+        <v>5.3589770000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1299.480000</v>
+        <v>1299.48</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.338000</v>
+        <v>-201.33799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>19302.477844</v>
+        <v>19302.477844000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>5.361799</v>
+        <v>5.3617990000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>1310.760000</v>
+        <v>1310.76</v>
       </c>
       <c r="S3" s="1">
-        <v>-183.221000</v>
+        <v>-183.221</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>19312.735142</v>
+        <v>19312.735142000001</v>
       </c>
       <c r="V3" s="1">
         <v>5.364649</v>
       </c>
       <c r="W3" s="1">
-        <v>1323.500000</v>
+        <v>1323.5</v>
       </c>
       <c r="X3" s="1">
-        <v>-169.992000</v>
+        <v>-169.99199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>19322.883256</v>
+        <v>19322.883256000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>5.367468</v>
+        <v>5.3674679999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1340.410000</v>
+        <v>1340.41</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.331000</v>
+        <v>-168.33099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>19333.142012</v>
@@ -828,103 +1244,103 @@
         <v>5.370317</v>
       </c>
       <c r="AG3" s="1">
-        <v>1353.120000</v>
+        <v>1353.12</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.097000</v>
+        <v>-178.09700000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>19343.252461</v>
       </c>
       <c r="AK3" s="1">
-        <v>5.373126</v>
+        <v>5.3731260000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1373.670000</v>
+        <v>1373.67</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.438000</v>
+        <v>-208.43799999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>19354.170895</v>
+        <v>19354.170894999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>5.376159</v>
+        <v>5.3761590000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1395.320000</v>
+        <v>1395.32</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.694000</v>
+        <v>-252.69399999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>19365.138956</v>
+        <v>19365.138955999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>5.379205</v>
+        <v>5.3792049999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>1419.950000</v>
+        <v>1419.95</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.950000</v>
+        <v>-312.95</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>19376.671905</v>
+        <v>19376.671904999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>5.382409</v>
       </c>
       <c r="BA3" s="1">
-        <v>1439.420000</v>
+        <v>1439.42</v>
       </c>
       <c r="BB3" s="1">
-        <v>-365.209000</v>
+        <v>-365.209</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>19388.101714</v>
       </c>
       <c r="BE3" s="1">
-        <v>5.385584</v>
+        <v>5.3855839999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1525.350000</v>
+        <v>1525.35</v>
       </c>
       <c r="BG3" s="1">
-        <v>-614.029000</v>
+        <v>-614.029</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>19399.212101</v>
+        <v>19399.212101000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>5.388670</v>
+        <v>5.3886700000000003</v>
       </c>
       <c r="BK3" s="1">
-        <v>1680.630000</v>
+        <v>1680.63</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1059.070000</v>
+        <v>-1059.07</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>19410.710852</v>
@@ -933,28 +1349,28 @@
         <v>5.391864</v>
       </c>
       <c r="BP3" s="1">
-        <v>1976.830000</v>
+        <v>1976.83</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1829.440000</v>
+        <v>-1829.44</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>19422.334597</v>
+        <v>19422.334597000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>5.395093</v>
+        <v>5.3950930000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2368.260000</v>
+        <v>2368.2600000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2716.040000</v>
+        <v>-2716.04</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>19432.877064</v>
@@ -963,135 +1379,135 @@
         <v>5.398021</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2853.290000</v>
+        <v>2853.29</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3686.060000</v>
+        <v>-3686.06</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>19444.654107</v>
+        <v>19444.654106999998</v>
       </c>
       <c r="CD3" s="1">
-        <v>5.401293</v>
+        <v>5.4012929999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4278.410000</v>
+        <v>4278.41</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6020.180000</v>
+        <v>-6020.18</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>19272.096891</v>
+        <v>19272.096891000001</v>
       </c>
       <c r="B4" s="1">
-        <v>5.353360</v>
+        <v>5.3533600000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>1239.680000</v>
+        <v>1239.68</v>
       </c>
       <c r="D4" s="1">
-        <v>-305.711000</v>
+        <v>-305.71100000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>19282.499981</v>
+        <v>19282.499981000001</v>
       </c>
       <c r="G4" s="1">
-        <v>5.356250</v>
+        <v>5.3562500000000002</v>
       </c>
       <c r="H4" s="1">
-        <v>1264.740000</v>
+        <v>1264.74</v>
       </c>
       <c r="I4" s="1">
-        <v>-263.778000</v>
+        <v>-263.77800000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>19292.664014</v>
+        <v>19292.664014000002</v>
       </c>
       <c r="L4" s="1">
-        <v>5.359073</v>
+        <v>5.3590730000000004</v>
       </c>
       <c r="M4" s="1">
-        <v>1299.370000</v>
+        <v>1299.3699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.335000</v>
+        <v>-201.33500000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>19302.898450</v>
+        <v>19302.898450000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>5.361916</v>
+        <v>5.3619159999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>1310.700000</v>
+        <v>1310.7</v>
       </c>
       <c r="S4" s="1">
-        <v>-183.193000</v>
+        <v>-183.19300000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>19313.157702</v>
       </c>
       <c r="V4" s="1">
-        <v>5.364766</v>
+        <v>5.3647660000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>1323.530000</v>
+        <v>1323.53</v>
       </c>
       <c r="X4" s="1">
-        <v>-169.977000</v>
+        <v>-169.977</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>19323.227479</v>
+        <v>19323.227479000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>5.367563</v>
+        <v>5.3675629999999996</v>
       </c>
       <c r="AB4" s="1">
-        <v>1340.560000</v>
+        <v>1340.56</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.061000</v>
+        <v>-168.06100000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>19333.448044</v>
+        <v>19333.448044000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>5.370402</v>
+        <v>5.3704020000000003</v>
       </c>
       <c r="AG4" s="1">
-        <v>1353.220000</v>
+        <v>1353.22</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.108000</v>
+        <v>-178.108</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>19343.596717</v>
@@ -1100,43 +1516,43 @@
         <v>5.373221</v>
       </c>
       <c r="AL4" s="1">
-        <v>1373.650000</v>
+        <v>1373.65</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.490000</v>
+        <v>-208.49</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>19354.531486</v>
       </c>
       <c r="AP4" s="1">
-        <v>5.376259</v>
+        <v>5.3762590000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1395.310000</v>
+        <v>1395.31</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.677000</v>
+        <v>-252.67699999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>19365.506000</v>
+        <v>19365.506000000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>5.379307</v>
+        <v>5.3793069999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1419.950000</v>
+        <v>1419.95</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.919000</v>
+        <v>-312.91899999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>19377.401521</v>
@@ -1145,1208 +1561,1208 @@
         <v>5.382612</v>
       </c>
       <c r="BA4" s="1">
-        <v>1439.430000</v>
+        <v>1439.43</v>
       </c>
       <c r="BB4" s="1">
-        <v>-365.229000</v>
+        <v>-365.22899999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>19388.461315</v>
       </c>
       <c r="BE4" s="1">
-        <v>5.385684</v>
+        <v>5.3856840000000004</v>
       </c>
       <c r="BF4" s="1">
-        <v>1525.350000</v>
+        <v>1525.35</v>
       </c>
       <c r="BG4" s="1">
-        <v>-613.989000</v>
+        <v>-613.98900000000003</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>19399.589556</v>
+        <v>19399.589555999999</v>
       </c>
       <c r="BJ4" s="1">
-        <v>5.388775</v>
+        <v>5.3887749999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1680.720000</v>
+        <v>1680.72</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1059.120000</v>
+        <v>-1059.1199999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>19411.106165</v>
+        <v>19411.106165000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>5.391974</v>
+        <v>5.3919740000000003</v>
       </c>
       <c r="BP4" s="1">
-        <v>1976.640000</v>
+        <v>1976.64</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1829.560000</v>
+        <v>-1829.56</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>19423.074627</v>
+        <v>19423.074627000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>5.395299</v>
+        <v>5.3952989999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>2368.180000</v>
+        <v>2368.1799999999998</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2716.480000</v>
+        <v>-2716.48</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>19433.601733</v>
       </c>
       <c r="BY4" s="1">
-        <v>5.398223</v>
+        <v>5.3982229999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2853.470000</v>
+        <v>2853.47</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3686.330000</v>
+        <v>-3686.33</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>19444.887191</v>
+        <v>19444.887191000002</v>
       </c>
       <c r="CD4" s="1">
-        <v>5.401358</v>
+        <v>5.4013580000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4294.630000</v>
+        <v>4294.63</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6016.500000</v>
+        <v>-6016.5</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>19272.439627</v>
       </c>
       <c r="B5" s="1">
-        <v>5.353455</v>
+        <v>5.3534550000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="D5" s="1">
-        <v>-305.716000</v>
+        <v>-305.71600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>19282.844701</v>
+        <v>19282.844701000002</v>
       </c>
       <c r="G5" s="1">
-        <v>5.356346</v>
+        <v>5.3563460000000003</v>
       </c>
       <c r="H5" s="1">
-        <v>1264.800000</v>
+        <v>1264.8</v>
       </c>
       <c r="I5" s="1">
-        <v>-263.838000</v>
+        <v>-263.83800000000002</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>19293.081451</v>
+        <v>19293.081450999998</v>
       </c>
       <c r="L5" s="1">
-        <v>5.359189</v>
+        <v>5.3591889999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>1299.260000</v>
+        <v>1299.26</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.107000</v>
+        <v>-201.107</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>19303.200018</v>
       </c>
       <c r="Q5" s="1">
-        <v>5.362000</v>
+        <v>5.3620000000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1310.690000</v>
+        <v>1310.69</v>
       </c>
       <c r="S5" s="1">
-        <v>-183.173000</v>
+        <v>-183.173</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>19313.422596</v>
       </c>
       <c r="V5" s="1">
-        <v>5.364840</v>
+        <v>5.3648400000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1323.480000</v>
+        <v>1323.48</v>
       </c>
       <c r="X5" s="1">
-        <v>-169.986000</v>
+        <v>-169.98599999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>19323.576695</v>
       </c>
       <c r="AA5" s="1">
-        <v>5.367660</v>
+        <v>5.3676599999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1340.440000</v>
+        <v>1340.44</v>
       </c>
       <c r="AC5" s="1">
-        <v>-168.071000</v>
+        <v>-168.071</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>19333.800699</v>
+        <v>19333.800698999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>5.370500</v>
+        <v>5.3704999999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1353.070000</v>
+        <v>1353.07</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.187000</v>
+        <v>-178.18700000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>19343.943562</v>
       </c>
       <c r="AK5" s="1">
-        <v>5.373318</v>
+        <v>5.3733180000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>1373.670000</v>
+        <v>1373.67</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.421000</v>
+        <v>-208.42099999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>19355.259293</v>
+        <v>19355.259292999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>5.376461</v>
+        <v>5.3764609999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1395.310000</v>
+        <v>1395.31</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.665000</v>
+        <v>-252.66499999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>19366.235584</v>
+        <v>19366.235583999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>5.379510</v>
+        <v>5.3795099999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1419.970000</v>
+        <v>1419.97</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.934000</v>
+        <v>-312.93400000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>19377.756656</v>
+        <v>19377.756656000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>5.382710</v>
+        <v>5.3827100000000003</v>
       </c>
       <c r="BA5" s="1">
-        <v>1439.380000</v>
+        <v>1439.38</v>
       </c>
       <c r="BB5" s="1">
-        <v>-365.227000</v>
+        <v>-365.22699999999998</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>19388.824881</v>
       </c>
       <c r="BE5" s="1">
-        <v>5.385785</v>
+        <v>5.3857850000000003</v>
       </c>
       <c r="BF5" s="1">
-        <v>1525.350000</v>
+        <v>1525.35</v>
       </c>
       <c r="BG5" s="1">
-        <v>-613.928000</v>
+        <v>-613.928</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>19399.961098</v>
       </c>
       <c r="BJ5" s="1">
-        <v>5.388878</v>
+        <v>5.3888780000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1680.700000</v>
+        <v>1680.7</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1059.060000</v>
+        <v>-1059.06</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>19411.837762</v>
+        <v>19411.837761999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>5.392177</v>
+        <v>5.3921770000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1976.620000</v>
+        <v>1976.62</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1829.620000</v>
+        <v>-1829.62</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>19423.201108</v>
+        <v>19423.201108000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>5.395334</v>
+        <v>5.3953340000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2368.660000</v>
+        <v>2368.66</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2716.780000</v>
+        <v>-2716.78</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>19433.772837</v>
       </c>
       <c r="BY5" s="1">
-        <v>5.398270</v>
+        <v>5.3982700000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2853.320000</v>
+        <v>2853.32</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3685.980000</v>
+        <v>-3685.98</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>19445.406998</v>
+        <v>19445.406997999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>5.401502</v>
+        <v>5.4015019999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>4287.730000</v>
+        <v>4287.7299999999996</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6000.110000</v>
+        <v>-6000.11</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>19272.877595</v>
+        <v>19272.877595000002</v>
       </c>
       <c r="B6" s="1">
-        <v>5.353577</v>
+        <v>5.3535769999999996</v>
       </c>
       <c r="C6" s="1">
-        <v>1239.970000</v>
+        <v>1239.97</v>
       </c>
       <c r="D6" s="1">
-        <v>-305.666000</v>
+        <v>-305.666</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>19283.269276</v>
+        <v>19283.269275999999</v>
       </c>
       <c r="G6" s="1">
-        <v>5.356464</v>
+        <v>5.3564639999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1266.030000</v>
+        <v>1266.03</v>
       </c>
       <c r="I6" s="1">
-        <v>-262.905000</v>
+        <v>-262.90499999999997</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>19293.352945</v>
+        <v>19293.352944999999</v>
       </c>
       <c r="L6" s="1">
-        <v>5.359265</v>
+        <v>5.3592649999999997</v>
       </c>
       <c r="M6" s="1">
-        <v>1298.880000</v>
+        <v>1298.8800000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.241000</v>
+        <v>-201.24100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>19303.549201</v>
+        <v>19303.549201000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>5.362097</v>
+        <v>5.3620970000000003</v>
       </c>
       <c r="R6" s="1">
-        <v>1310.800000</v>
+        <v>1310.8</v>
       </c>
       <c r="S6" s="1">
-        <v>-183.166000</v>
+        <v>-183.166</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>19313.766788</v>
+        <v>19313.766788000001</v>
       </c>
       <c r="V6" s="1">
         <v>5.364935</v>
       </c>
       <c r="W6" s="1">
-        <v>1323.450000</v>
+        <v>1323.45</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.005000</v>
+        <v>-170.005</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>19323.924855</v>
+        <v>19323.924855000001</v>
       </c>
       <c r="AA6" s="1">
-        <v>5.367757</v>
+        <v>5.3677570000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1340.420000</v>
+        <v>1340.42</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.154000</v>
+        <v>-168.154</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>19334.145417</v>
       </c>
       <c r="AF6" s="1">
-        <v>5.370596</v>
+        <v>5.3705959999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1353.150000</v>
+        <v>1353.15</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.098000</v>
+        <v>-178.09800000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>19344.640763</v>
+        <v>19344.640762999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>5.373511</v>
+        <v>5.3735109999999997</v>
       </c>
       <c r="AL6" s="1">
-        <v>1373.670000</v>
+        <v>1373.67</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.428000</v>
+        <v>-208.428</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>19355.640045</v>
       </c>
       <c r="AP6" s="1">
-        <v>5.376567</v>
+        <v>5.3765669999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1395.330000</v>
+        <v>1395.33</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.646000</v>
+        <v>-252.64599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>19366.625934</v>
       </c>
       <c r="AU6" s="1">
-        <v>5.379618</v>
+        <v>5.3796179999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1419.960000</v>
+        <v>1419.96</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.938000</v>
+        <v>-312.93799999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>19378.117247</v>
+        <v>19378.117246999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>5.382810</v>
+        <v>5.3828100000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1439.430000</v>
+        <v>1439.43</v>
       </c>
       <c r="BB6" s="1">
-        <v>-365.248000</v>
+        <v>-365.24799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>19389.495472</v>
+        <v>19389.495471999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>5.385971</v>
+        <v>5.3859709999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1525.320000</v>
+        <v>1525.32</v>
       </c>
       <c r="BG6" s="1">
-        <v>-613.923000</v>
+        <v>-613.923</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>19400.663889</v>
+        <v>19400.663888999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>5.389073</v>
+        <v>5.3890729999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1680.590000</v>
+        <v>1680.59</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1059.030000</v>
+        <v>-1059.03</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>19412.357075</v>
       </c>
       <c r="BO6" s="1">
-        <v>5.392321</v>
+        <v>5.3923209999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1976.640000</v>
+        <v>1976.64</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1829.430000</v>
+        <v>-1829.43</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>19423.610803</v>
       </c>
       <c r="BT6" s="1">
-        <v>5.395447</v>
+        <v>5.3954469999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2368.510000</v>
+        <v>2368.5100000000002</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2717.130000</v>
+        <v>-2717.13</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>19434.200885</v>
+        <v>19434.200884999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>5.398389</v>
+        <v>5.3983889999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2853.020000</v>
+        <v>2853.02</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3686.460000</v>
+        <v>-3686.46</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>19445.922874</v>
       </c>
       <c r="CD6" s="1">
-        <v>5.401645</v>
+        <v>5.4016450000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>4272.160000</v>
+        <v>4272.16</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6008.530000</v>
+        <v>-6008.53</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>19273.140971</v>
+        <v>19273.140971000001</v>
       </c>
       <c r="B7" s="1">
-        <v>5.353650</v>
+        <v>5.35365</v>
       </c>
       <c r="C7" s="1">
-        <v>1239.880000</v>
+        <v>1239.8800000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>-305.667000</v>
+        <v>-305.66699999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>19283.543564</v>
       </c>
       <c r="G7" s="1">
-        <v>5.356540</v>
+        <v>5.3565399999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-263.397000</v>
+        <v>-263.39699999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>19293.700639</v>
+        <v>19293.700638999999</v>
       </c>
       <c r="L7" s="1">
-        <v>5.359361</v>
+        <v>5.3593609999999998</v>
       </c>
       <c r="M7" s="1">
-        <v>1299.180000</v>
+        <v>1299.18</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.170000</v>
+        <v>-201.17</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>19303.895441</v>
+        <v>19303.895441000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>5.362193</v>
+        <v>5.3621930000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>1310.790000</v>
+        <v>1310.79</v>
       </c>
       <c r="S7" s="1">
-        <v>-183.247000</v>
+        <v>-183.24700000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>19314.107541</v>
+        <v>19314.107541000001</v>
       </c>
       <c r="V7" s="1">
-        <v>5.365030</v>
+        <v>5.36503</v>
       </c>
       <c r="W7" s="1">
-        <v>1323.480000</v>
+        <v>1323.48</v>
       </c>
       <c r="X7" s="1">
-        <v>-169.911000</v>
+        <v>-169.911</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>19324.622263</v>
+        <v>19324.622263000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>5.367951</v>
+        <v>5.3679509999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>1340.440000</v>
+        <v>1340.44</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.133000</v>
+        <v>-168.13300000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>19334.831384</v>
+        <v>19334.831384000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>5.370786</v>
+        <v>5.3707859999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1353.060000</v>
+        <v>1353.06</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.498000</v>
+        <v>-178.49799999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>19344.988986</v>
       </c>
       <c r="AK7" s="1">
-        <v>5.373608</v>
+        <v>5.3736079999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1373.660000</v>
+        <v>1373.66</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.421000</v>
+        <v>-208.42099999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>19356.000140</v>
+        <v>19356.00014</v>
       </c>
       <c r="AP7" s="1">
-        <v>5.376667</v>
+        <v>5.3766670000000003</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1395.320000</v>
+        <v>1395.32</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.654000</v>
+        <v>-252.654</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>19366.991982</v>
       </c>
       <c r="AU7" s="1">
-        <v>5.379720</v>
+        <v>5.3797199999999998</v>
       </c>
       <c r="AV7" s="1">
-        <v>1419.980000</v>
+        <v>1419.98</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.931000</v>
+        <v>-312.93099999999998</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>19378.799742</v>
+        <v>19378.799741999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>5.383000</v>
+        <v>5.383</v>
       </c>
       <c r="BA7" s="1">
-        <v>1439.420000</v>
+        <v>1439.42</v>
       </c>
       <c r="BB7" s="1">
-        <v>-365.245000</v>
+        <v>-365.245</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>19389.908144</v>
+        <v>19389.908144000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>5.386086</v>
+        <v>5.3860859999999997</v>
       </c>
       <c r="BF7" s="1">
-        <v>1525.360000</v>
+        <v>1525.36</v>
       </c>
       <c r="BG7" s="1">
-        <v>-613.945000</v>
+        <v>-613.94500000000005</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>19401.121826</v>
+        <v>19401.121825999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>5.389201</v>
+        <v>5.3892009999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1680.590000</v>
+        <v>1680.59</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1059.060000</v>
+        <v>-1059.06</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>19412.767267</v>
+        <v>19412.767266999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>5.392435</v>
+        <v>5.3924349999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1976.580000</v>
+        <v>1976.58</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1829.440000</v>
+        <v>-1829.44</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>19424.038354</v>
       </c>
       <c r="BT7" s="1">
-        <v>5.395566</v>
+        <v>5.3955659999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.720000</v>
+        <v>2368.7199999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2717.460000</v>
+        <v>-2717.46</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>19434.617028</v>
+        <v>19434.617028000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>5.398505</v>
+        <v>5.3985050000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2853.940000</v>
+        <v>2853.94</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3685.770000</v>
+        <v>-3685.77</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>19446.440660</v>
+        <v>19446.44066</v>
       </c>
       <c r="CD7" s="1">
         <v>5.401789</v>
       </c>
       <c r="CE7" s="1">
-        <v>4280.190000</v>
+        <v>4280.1899999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6022.130000</v>
+        <v>-6022.13</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>19273.480265</v>
+        <v>19273.480264999998</v>
       </c>
       <c r="B8" s="1">
         <v>5.353745</v>
       </c>
       <c r="C8" s="1">
-        <v>1239.860000</v>
+        <v>1239.8599999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-305.794000</v>
+        <v>-305.79399999999998</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>19283.883324</v>
+        <v>19283.883323999999</v>
       </c>
       <c r="G8" s="1">
-        <v>5.356634</v>
+        <v>5.3566339999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>1265.040000</v>
+        <v>1265.04</v>
       </c>
       <c r="I8" s="1">
-        <v>-263.147000</v>
+        <v>-263.14699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>19294.048020</v>
+        <v>19294.048019999998</v>
       </c>
       <c r="L8" s="1">
-        <v>5.359458</v>
+        <v>5.3594580000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1299.450000</v>
+        <v>1299.45</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.081000</v>
+        <v>-201.08099999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>19304.592302</v>
+        <v>19304.592302000001</v>
       </c>
       <c r="Q8" s="1">
         <v>5.362387</v>
       </c>
       <c r="R8" s="1">
-        <v>1310.720000</v>
+        <v>1310.72</v>
       </c>
       <c r="S8" s="1">
-        <v>-183.258000</v>
+        <v>-183.25800000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>19314.795490</v>
+        <v>19314.79549</v>
       </c>
       <c r="V8" s="1">
         <v>5.365221</v>
       </c>
       <c r="W8" s="1">
-        <v>1323.490000</v>
+        <v>1323.49</v>
       </c>
       <c r="X8" s="1">
-        <v>-169.933000</v>
+        <v>-169.93299999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>19324.970919</v>
+        <v>19324.970918999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>5.368047</v>
+        <v>5.3680469999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>1340.490000</v>
+        <v>1340.49</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.177000</v>
+        <v>-168.17699999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>19335.173129</v>
+        <v>19335.173128999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>5.370881</v>
+        <v>5.3708809999999998</v>
       </c>
       <c r="AG8" s="1">
-        <v>1353.080000</v>
+        <v>1353.08</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.069000</v>
+        <v>-178.06899999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>19345.336154</v>
+        <v>19345.336154000001</v>
       </c>
       <c r="AK8" s="1">
         <v>5.373704</v>
       </c>
       <c r="AL8" s="1">
-        <v>1373.640000</v>
+        <v>1373.64</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.422000</v>
+        <v>-208.422</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>19356.662796</v>
+        <v>19356.662796000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>5.376851</v>
+        <v>5.3768510000000003</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1395.310000</v>
+        <v>1395.31</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.681000</v>
+        <v>-252.68100000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>19367.664557</v>
       </c>
       <c r="AU8" s="1">
-        <v>5.379907</v>
+        <v>5.3799070000000002</v>
       </c>
       <c r="AV8" s="1">
-        <v>1419.950000</v>
+        <v>1419.95</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.935000</v>
+        <v>-312.935</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>19379.196045</v>
+        <v>19379.196045000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>5.383110</v>
+        <v>5.3831100000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1439.450000</v>
+        <v>1439.45</v>
       </c>
       <c r="BB8" s="1">
-        <v>-365.193000</v>
+        <v>-365.19299999999998</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>19390.299487</v>
       </c>
       <c r="BE8" s="1">
-        <v>5.386194</v>
+        <v>5.3861939999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1525.370000</v>
+        <v>1525.37</v>
       </c>
       <c r="BG8" s="1">
-        <v>-613.924000</v>
+        <v>-613.92399999999998</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>19401.518001</v>
       </c>
       <c r="BJ8" s="1">
-        <v>5.389311</v>
+        <v>5.3893110000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1680.630000</v>
+        <v>1680.63</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1059.010000</v>
+        <v>-1059.01</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>19413.162080</v>
+        <v>19413.162079999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>5.392545</v>
+        <v>5.3925450000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1976.570000</v>
+        <v>1976.57</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1829.480000</v>
+        <v>-1829.48</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>19424.450530</v>
+        <v>19424.450529999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>5.395681</v>
+        <v>5.3956809999999997</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.740000</v>
+        <v>2368.7399999999998</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2717.670000</v>
+        <v>-2717.67</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>19435.075829</v>
+        <v>19435.075829000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>5.398632</v>
+        <v>5.3986320000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2852.770000</v>
+        <v>2852.77</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3685.750000</v>
+        <v>-3685.75</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>19446.961460</v>
+        <v>19446.961459999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>5.401934</v>
+        <v>5.4019339999999998</v>
       </c>
       <c r="CE8" s="1">
-        <v>4293.110000</v>
+        <v>4293.1099999999997</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6014.360000</v>
+        <v>-6014.36</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>19273.820520</v>
+        <v>19273.820520000001</v>
       </c>
       <c r="B9" s="1">
-        <v>5.353839</v>
+        <v>5.3538389999999998</v>
       </c>
       <c r="C9" s="1">
-        <v>1239.520000</v>
+        <v>1239.52</v>
       </c>
       <c r="D9" s="1">
-        <v>-305.467000</v>
+        <v>-305.46699999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>19284.228539</v>
       </c>
       <c r="G9" s="1">
-        <v>5.356730</v>
+        <v>5.3567299999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1265.030000</v>
+        <v>1265.03</v>
       </c>
       <c r="I9" s="1">
-        <v>-262.854000</v>
+        <v>-262.85399999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>19294.742237</v>
+        <v>19294.742236999999</v>
       </c>
       <c r="L9" s="1">
-        <v>5.359651</v>
+        <v>5.3596510000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>1299.160000</v>
+        <v>1299.1600000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-200.995000</v>
+        <v>-200.995</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>19304.938992</v>
+        <v>19304.938991999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>5.362483</v>
+        <v>5.3624830000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1310.690000</v>
+        <v>1310.69</v>
       </c>
       <c r="S9" s="1">
-        <v>-183.236000</v>
+        <v>-183.23599999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>19315.140242</v>
+        <v>19315.140242000001</v>
       </c>
       <c r="V9" s="1">
-        <v>5.365317</v>
+        <v>5.3653170000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1323.510000</v>
+        <v>1323.51</v>
       </c>
       <c r="X9" s="1">
-        <v>-169.830000</v>
+        <v>-169.83</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>19325.318614</v>
@@ -2355,2237 +2771,2237 @@
         <v>5.368144</v>
       </c>
       <c r="AB9" s="1">
-        <v>1340.550000</v>
+        <v>1340.55</v>
       </c>
       <c r="AC9" s="1">
-        <v>-168.248000</v>
+        <v>-168.24799999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>19335.829868</v>
+        <v>19335.829868000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>5.371064</v>
+        <v>5.3710639999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>1353.130000</v>
+        <v>1353.13</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.083000</v>
+        <v>-178.083</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>19345.989917</v>
+        <v>19345.989916999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>5.373886</v>
+        <v>5.3738859999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1373.620000</v>
+        <v>1373.62</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.444000</v>
+        <v>-208.44399999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>19357.080428</v>
+        <v>19357.080428000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>5.376967</v>
+        <v>5.3769669999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1395.280000</v>
+        <v>1395.28</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.669000</v>
+        <v>-252.66900000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>19368.085196</v>
       </c>
       <c r="AU9" s="1">
-        <v>5.380024</v>
+        <v>5.3800239999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1419.980000</v>
+        <v>1419.98</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.908000</v>
+        <v>-312.90800000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>19379.583421</v>
+        <v>19379.583420999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>5.383218</v>
+        <v>5.3832180000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>1439.440000</v>
+        <v>1439.44</v>
       </c>
       <c r="BB9" s="1">
-        <v>-365.172000</v>
+        <v>-365.17200000000003</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>19390.662062</v>
+        <v>19390.662061999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>5.386295</v>
+        <v>5.3862949999999996</v>
       </c>
       <c r="BF9" s="1">
-        <v>1525.290000</v>
+        <v>1525.29</v>
       </c>
       <c r="BG9" s="1">
-        <v>-613.935000</v>
+        <v>-613.93499999999995</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>19401.904384</v>
+        <v>19401.904384000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>5.389418</v>
       </c>
       <c r="BK9" s="1">
-        <v>1680.610000</v>
+        <v>1680.61</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1059.060000</v>
+        <v>-1059.06</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>19413.586160</v>
+        <v>19413.586159999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>5.392663</v>
+        <v>5.3926629999999998</v>
       </c>
       <c r="BP9" s="1">
-        <v>1976.660000</v>
+        <v>1976.66</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1829.500000</v>
+        <v>-1829.5</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>19424.867665</v>
+        <v>19424.867665000002</v>
       </c>
       <c r="BT9" s="1">
         <v>5.395797</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.840000</v>
+        <v>2368.84</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2718.000000</v>
+        <v>-2718</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>19435.520280</v>
+        <v>19435.520280000001</v>
       </c>
       <c r="BY9" s="1">
-        <v>5.398756</v>
+        <v>5.3987559999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2853.450000</v>
+        <v>2853.45</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3685.930000</v>
+        <v>-3685.93</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>19447.476308</v>
+        <v>19447.476308000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>5.402077</v>
+        <v>5.4020770000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>4290.430000</v>
+        <v>4290.43</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6017.090000</v>
+        <v>-6017.09</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>19274.502519</v>
+        <v>19274.502519000001</v>
       </c>
       <c r="B10" s="1">
-        <v>5.354028</v>
+        <v>5.3540279999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>1240.120000</v>
+        <v>1240.1199999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-305.496000</v>
+        <v>-305.49599999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>19284.920460</v>
+        <v>19284.920460000001</v>
       </c>
       <c r="G10" s="1">
         <v>5.356922</v>
       </c>
       <c r="H10" s="1">
-        <v>1264.850000</v>
+        <v>1264.8499999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-263.830000</v>
+        <v>-263.83</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>19295.085470</v>
+        <v>19295.085470000002</v>
       </c>
       <c r="L10" s="1">
-        <v>5.359746</v>
+        <v>5.3597460000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>1299.200000</v>
+        <v>1299.2</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.374000</v>
+        <v>-201.374</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>19305.288175</v>
+        <v>19305.288175000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>5.362580</v>
+        <v>5.3625800000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>1310.710000</v>
+        <v>1310.71</v>
       </c>
       <c r="S10" s="1">
-        <v>-183.185000</v>
+        <v>-183.185</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>19315.486418</v>
       </c>
       <c r="V10" s="1">
-        <v>5.365413</v>
+        <v>5.3654130000000002</v>
       </c>
       <c r="W10" s="1">
-        <v>1323.480000</v>
+        <v>1323.48</v>
       </c>
       <c r="X10" s="1">
-        <v>-169.897000</v>
+        <v>-169.89699999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>19325.965923</v>
       </c>
       <c r="AA10" s="1">
-        <v>5.368324</v>
+        <v>5.3683240000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>1340.360000</v>
+        <v>1340.36</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.180000</v>
+        <v>-168.18</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>19336.207782</v>
+        <v>19336.207782000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>5.371169</v>
+        <v>5.3711690000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1353.240000</v>
+        <v>1353.24</v>
       </c>
       <c r="AH10" s="1">
-        <v>-177.994000</v>
+        <v>-177.994</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>19346.381752</v>
+        <v>19346.381752000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>5.373995</v>
+        <v>5.3739949999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1373.610000</v>
+        <v>1373.61</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.422000</v>
+        <v>-208.422</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>19357.461850</v>
+        <v>19357.46185</v>
       </c>
       <c r="AP10" s="1">
-        <v>5.377073</v>
+        <v>5.3770730000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1395.320000</v>
+        <v>1395.32</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.636000</v>
+        <v>-252.636</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>19368.446785</v>
       </c>
       <c r="AU10" s="1">
-        <v>5.380124</v>
+        <v>5.3801240000000004</v>
       </c>
       <c r="AV10" s="1">
-        <v>1419.960000</v>
+        <v>1419.96</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.930000</v>
+        <v>-312.93</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>19379.938589</v>
+        <v>19379.938589000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>5.383316</v>
+        <v>5.3833159999999998</v>
       </c>
       <c r="BA10" s="1">
-        <v>1439.380000</v>
+        <v>1439.38</v>
       </c>
       <c r="BB10" s="1">
-        <v>-365.199000</v>
+        <v>-365.19900000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>19391.077214</v>
+        <v>19391.077214000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>5.386410</v>
+        <v>5.3864099999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1525.360000</v>
+        <v>1525.36</v>
       </c>
       <c r="BG10" s="1">
-        <v>-613.928000</v>
+        <v>-613.928</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>19402.670239</v>
+        <v>19402.670238999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>5.389631</v>
+        <v>5.3896309999999996</v>
       </c>
       <c r="BK10" s="1">
-        <v>1680.640000</v>
+        <v>1680.64</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1059.030000</v>
+        <v>-1059.03</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>19413.980975</v>
+        <v>19413.980974999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>5.392772</v>
+        <v>5.3927719999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1976.440000</v>
+        <v>1976.44</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1829.420000</v>
+        <v>-1829.42</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>19425.281826</v>
+        <v>19425.281825999999</v>
       </c>
       <c r="BT10" s="1">
         <v>5.395912</v>
       </c>
       <c r="BU10" s="1">
-        <v>2368.580000</v>
+        <v>2368.58</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2718.350000</v>
+        <v>-2718.35</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>19435.940882</v>
+        <v>19435.940881999999</v>
       </c>
       <c r="BY10" s="1">
-        <v>5.398872</v>
+        <v>5.3988719999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2853.650000</v>
+        <v>2853.65</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3685.980000</v>
+        <v>-3685.98</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>19448.030338</v>
       </c>
       <c r="CD10" s="1">
-        <v>5.402231</v>
+        <v>5.4022309999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>4282.140000</v>
+        <v>4282.1400000000003</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6023.380000</v>
+        <v>-6023.38</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>19274.849688</v>
+        <v>19274.849687999998</v>
       </c>
       <c r="B11" s="1">
-        <v>5.354125</v>
+        <v>5.3541249999999998</v>
       </c>
       <c r="C11" s="1">
-        <v>1239.770000</v>
+        <v>1239.77</v>
       </c>
       <c r="D11" s="1">
-        <v>-305.229000</v>
+        <v>-305.22899999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>19285.262698</v>
+        <v>19285.262697999999</v>
       </c>
       <c r="G11" s="1">
-        <v>5.357017</v>
+        <v>5.3570169999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1264.860000</v>
+        <v>1264.8599999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-263.196000</v>
+        <v>-263.19600000000003</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>19295.433698</v>
+        <v>19295.433698000001</v>
       </c>
       <c r="L11" s="1">
-        <v>5.359843</v>
+        <v>5.3598429999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>1299.170000</v>
+        <v>1299.17</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.183000</v>
+        <v>-201.18299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>19305.947013</v>
+        <v>19305.947013000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>5.362763</v>
+        <v>5.3627630000000002</v>
       </c>
       <c r="R11" s="1">
-        <v>1310.840000</v>
+        <v>1310.84</v>
       </c>
       <c r="S11" s="1">
-        <v>-183.150000</v>
+        <v>-183.15</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>19316.139687</v>
+        <v>19316.139686999999</v>
       </c>
       <c r="V11" s="1">
-        <v>5.365594</v>
+        <v>5.3655939999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1323.350000</v>
+        <v>1323.35</v>
       </c>
       <c r="X11" s="1">
-        <v>-169.880000</v>
+        <v>-169.88</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>19326.362726</v>
+        <v>19326.362725999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>5.368434</v>
+        <v>5.3684339999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>1340.410000</v>
+        <v>1340.41</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.061000</v>
+        <v>-168.06100000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>19336.554022</v>
       </c>
       <c r="AF11" s="1">
-        <v>5.371265</v>
+        <v>5.3712650000000002</v>
       </c>
       <c r="AG11" s="1">
-        <v>1353.330000</v>
+        <v>1353.33</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.338000</v>
+        <v>-178.33799999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>19346.731433</v>
+        <v>19346.731433000001</v>
       </c>
       <c r="AK11" s="1">
-        <v>5.374092</v>
+        <v>5.3740920000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1373.690000</v>
+        <v>1373.69</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.420000</v>
+        <v>-208.42</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>19357.823930</v>
+        <v>19357.823929999999</v>
       </c>
       <c r="AP11" s="1">
         <v>5.377173</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1395.260000</v>
+        <v>1395.26</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.658000</v>
+        <v>-252.65799999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>19368.815772</v>
+        <v>19368.815772000002</v>
       </c>
       <c r="AU11" s="1">
-        <v>5.380227</v>
+        <v>5.3802269999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>1419.950000</v>
+        <v>1419.95</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.918000</v>
+        <v>-312.91800000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>19380.357026</v>
+        <v>19380.357026000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>5.383433</v>
+        <v>5.3834330000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1439.430000</v>
+        <v>1439.43</v>
       </c>
       <c r="BB11" s="1">
-        <v>-365.183000</v>
+        <v>-365.18299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>19391.382751</v>
+        <v>19391.382751000001</v>
       </c>
       <c r="BE11" s="1">
         <v>5.386495</v>
       </c>
       <c r="BF11" s="1">
-        <v>1525.340000</v>
+        <v>1525.34</v>
       </c>
       <c r="BG11" s="1">
-        <v>-613.903000</v>
+        <v>-613.90300000000002</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>19403.046174</v>
+        <v>19403.046173999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5.389735</v>
+        <v>5.3897349999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1680.650000</v>
+        <v>1680.65</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1059.010000</v>
+        <v>-1059.01</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>19414.399141</v>
+        <v>19414.399141000002</v>
       </c>
       <c r="BO11" s="1">
-        <v>5.392889</v>
+        <v>5.3928890000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1976.480000</v>
+        <v>1976.48</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1829.430000</v>
+        <v>-1829.43</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>19425.695521</v>
+        <v>19425.695521000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>5.396027</v>
+        <v>5.3960270000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>2368.250000</v>
+        <v>2368.25</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2718.750000</v>
+        <v>-2718.75</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>19436.715602</v>
       </c>
       <c r="BY11" s="1">
-        <v>5.399088</v>
+        <v>5.3990879999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2853.440000</v>
+        <v>2853.44</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3685.180000</v>
+        <v>-3685.18</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>19448.555602</v>
       </c>
       <c r="CD11" s="1">
-        <v>5.402377</v>
+        <v>5.4023770000000004</v>
       </c>
       <c r="CE11" s="1">
-        <v>4294.660000</v>
+        <v>4294.66</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6012.960000</v>
+        <v>-6012.96</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>19275.189447</v>
+        <v>19275.189447000001</v>
       </c>
       <c r="B12" s="1">
-        <v>5.354219</v>
+        <v>5.3542189999999996</v>
       </c>
       <c r="C12" s="1">
-        <v>1239.680000</v>
+        <v>1239.68</v>
       </c>
       <c r="D12" s="1">
-        <v>-305.397000</v>
+        <v>-305.39699999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>19285.903561</v>
+        <v>19285.903560999999</v>
       </c>
       <c r="G12" s="1">
-        <v>5.357195</v>
+        <v>5.3571949999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1263.690000</v>
+        <v>1263.69</v>
       </c>
       <c r="I12" s="1">
-        <v>-263.942000</v>
+        <v>-263.94200000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>19296.071548</v>
       </c>
       <c r="L12" s="1">
-        <v>5.360020</v>
+        <v>5.3600199999999996</v>
       </c>
       <c r="M12" s="1">
-        <v>1299.200000</v>
+        <v>1299.2</v>
       </c>
       <c r="N12" s="1">
-        <v>-200.963000</v>
+        <v>-200.96299999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>19306.345645</v>
+        <v>19306.345645000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>5.362874</v>
+        <v>5.3628739999999997</v>
       </c>
       <c r="R12" s="1">
-        <v>1310.820000</v>
+        <v>1310.82</v>
       </c>
       <c r="S12" s="1">
-        <v>-183.248000</v>
+        <v>-183.24799999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>19316.518592</v>
       </c>
       <c r="V12" s="1">
-        <v>5.365700</v>
+        <v>5.3657000000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>1323.420000</v>
+        <v>1323.42</v>
       </c>
       <c r="X12" s="1">
-        <v>-169.950000</v>
+        <v>-169.95</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>19326.711887</v>
+        <v>19326.711887000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>5.368531</v>
+        <v>5.3685309999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>1340.490000</v>
+        <v>1340.49</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.154000</v>
+        <v>-168.154</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>19336.897717</v>
       </c>
       <c r="AF12" s="1">
-        <v>5.371360</v>
+        <v>5.3713600000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>1353.210000</v>
+        <v>1353.21</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.124000</v>
+        <v>-178.124</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>19347.082073</v>
+        <v>19347.082073000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>5.374189</v>
+        <v>5.3741890000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>1373.690000</v>
+        <v>1373.69</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.417000</v>
+        <v>-208.417</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>19358.236105</v>
       </c>
       <c r="AP12" s="1">
-        <v>5.377288</v>
+        <v>5.3772880000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1395.250000</v>
+        <v>1395.25</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.647000</v>
+        <v>-252.64699999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>19369.546874</v>
       </c>
       <c r="AU12" s="1">
-        <v>5.380430</v>
+        <v>5.3804299999999996</v>
       </c>
       <c r="AV12" s="1">
-        <v>1419.970000</v>
+        <v>1419.97</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.952000</v>
+        <v>-312.952</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>19380.656901</v>
+        <v>19380.656900999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>5.383516</v>
+        <v>5.3835160000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>1439.390000</v>
+        <v>1439.39</v>
       </c>
       <c r="BB12" s="1">
-        <v>-365.196000</v>
+        <v>-365.19600000000003</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>19391.742877</v>
+        <v>19391.742877000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>5.386595</v>
+        <v>5.3865949999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1525.330000</v>
+        <v>1525.33</v>
       </c>
       <c r="BG12" s="1">
-        <v>-613.944000</v>
+        <v>-613.94399999999996</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>19403.423663</v>
+        <v>19403.423663000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>5.389840</v>
+        <v>5.3898400000000004</v>
       </c>
       <c r="BK12" s="1">
-        <v>1680.580000</v>
+        <v>1680.58</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1058.910000</v>
+        <v>-1058.9100000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>19414.797390</v>
+        <v>19414.79739</v>
       </c>
       <c r="BO12" s="1">
-        <v>5.392999</v>
+        <v>5.3929989999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1976.420000</v>
+        <v>1976.42</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1829.340000</v>
+        <v>-1829.34</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>19426.113615</v>
+        <v>19426.113614999998</v>
       </c>
       <c r="BT12" s="1">
-        <v>5.396143</v>
+        <v>5.3961430000000004</v>
       </c>
       <c r="BU12" s="1">
-        <v>2368.300000</v>
+        <v>2368.3000000000002</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2718.820000</v>
+        <v>-2718.82</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>19437.236403</v>
+        <v>19437.236402999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>5.399232</v>
+        <v>5.3992319999999996</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2853.140000</v>
+        <v>2853.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3685.290000</v>
+        <v>-3685.29</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>19449.077394</v>
       </c>
       <c r="CD12" s="1">
-        <v>5.402521</v>
+        <v>5.4025210000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>4275.110000</v>
+        <v>4275.1099999999997</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6002.030000</v>
+        <v>-6002.03</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>19275.824822</v>
+        <v>19275.824821999999</v>
       </c>
       <c r="B13" s="1">
-        <v>5.354396</v>
+        <v>5.3543960000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>1240.050000</v>
+        <v>1240.05</v>
       </c>
       <c r="D13" s="1">
-        <v>-305.244000</v>
+        <v>-305.24400000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>19286.297848</v>
+        <v>19286.297847999998</v>
       </c>
       <c r="G13" s="1">
-        <v>5.357305</v>
+        <v>5.3573050000000002</v>
       </c>
       <c r="H13" s="1">
-        <v>1265.050000</v>
+        <v>1265.05</v>
       </c>
       <c r="I13" s="1">
-        <v>-263.506000</v>
+        <v>-263.50599999999997</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>19296.470827</v>
+        <v>19296.470827000001</v>
       </c>
       <c r="L13" s="1">
         <v>5.360131</v>
       </c>
       <c r="M13" s="1">
-        <v>1299.220000</v>
+        <v>1299.22</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.089000</v>
+        <v>-201.089</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>19306.680955</v>
       </c>
       <c r="Q13" s="1">
-        <v>5.362967</v>
+        <v>5.3629670000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1310.810000</v>
+        <v>1310.81</v>
       </c>
       <c r="S13" s="1">
-        <v>-183.246000</v>
+        <v>-183.24600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>19316.866288</v>
+        <v>19316.866288000001</v>
       </c>
       <c r="V13" s="1">
-        <v>5.365796</v>
+        <v>5.3657959999999996</v>
       </c>
       <c r="W13" s="1">
-        <v>1323.440000</v>
+        <v>1323.44</v>
       </c>
       <c r="X13" s="1">
-        <v>-169.950000</v>
+        <v>-169.95</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>19327.063076</v>
+        <v>19327.063075999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>5.368629</v>
+        <v>5.3686290000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1340.590000</v>
+        <v>1340.59</v>
       </c>
       <c r="AC13" s="1">
-        <v>-167.991000</v>
+        <v>-167.99100000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>19337.304437</v>
+        <v>19337.304436999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>5.371473</v>
+        <v>5.3714729999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1353.310000</v>
+        <v>1353.31</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.248000</v>
+        <v>-178.24799999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>19347.507176</v>
+        <v>19347.507175999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>5.374308</v>
+        <v>5.3743080000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1373.650000</v>
+        <v>1373.65</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.378000</v>
+        <v>-208.37799999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>19358.547128</v>
+        <v>19358.547127999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>5.377374</v>
+        <v>5.3773739999999997</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1395.290000</v>
+        <v>1395.29</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.636000</v>
+        <v>-252.636</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>19369.928298</v>
+        <v>19369.928297999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>5.380536</v>
+        <v>5.3805360000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1419.970000</v>
+        <v>1419.97</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.920000</v>
+        <v>-312.92</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>19381.016363</v>
+        <v>19381.016362999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>5.383616</v>
       </c>
       <c r="BA13" s="1">
-        <v>1439.440000</v>
+        <v>1439.44</v>
       </c>
       <c r="BB13" s="1">
-        <v>-365.204000</v>
+        <v>-365.20400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>19392.102940</v>
+        <v>19392.102940000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>5.386695</v>
+        <v>5.3866949999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1525.310000</v>
+        <v>1525.31</v>
       </c>
       <c r="BG13" s="1">
-        <v>-613.903000</v>
+        <v>-613.90300000000002</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>19404.196894</v>
+        <v>19404.196894000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>5.390055</v>
+        <v>5.3900550000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1680.600000</v>
+        <v>1680.6</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1059.020000</v>
+        <v>-1059.02</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>19415.219518</v>
+        <v>19415.219518000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>5.393117</v>
+        <v>5.3931170000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1976.440000</v>
+        <v>1976.44</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1829.290000</v>
+        <v>-1829.29</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>19426.529299</v>
+        <v>19426.529299000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>5.396258</v>
+        <v>5.3962580000000004</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.830000</v>
+        <v>2367.83</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2719.170000</v>
+        <v>-2719.17</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>19437.662003</v>
+        <v>19437.662003000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>5.399351</v>
+        <v>5.3993510000000002</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2852.900000</v>
+        <v>2852.9</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3685.450000</v>
+        <v>-3685.45</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>19449.616048</v>
       </c>
       <c r="CD13" s="1">
-        <v>5.402671</v>
+        <v>5.4026709999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>4286.320000</v>
+        <v>4286.32</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6022.220000</v>
+        <v>-6022.22</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>19276.216166</v>
+        <v>19276.216165999998</v>
       </c>
       <c r="B14" s="1">
-        <v>5.354504</v>
+        <v>5.3545040000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>1240.170000</v>
+        <v>1240.17</v>
       </c>
       <c r="D14" s="1">
-        <v>-305.742000</v>
+        <v>-305.74200000000002</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>19286.640585</v>
+        <v>19286.640585000001</v>
       </c>
       <c r="G14" s="1">
-        <v>5.357400</v>
+        <v>5.3574000000000002</v>
       </c>
       <c r="H14" s="1">
-        <v>1264.480000</v>
+        <v>1264.48</v>
       </c>
       <c r="I14" s="1">
-        <v>-263.590000</v>
+        <v>-263.58999999999997</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>19296.816043</v>
+        <v>19296.816042999999</v>
       </c>
       <c r="L14" s="1">
-        <v>5.360227</v>
+        <v>5.3602270000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1299.130000</v>
+        <v>1299.1300000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.366000</v>
+        <v>-201.36600000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>19307.032140</v>
+        <v>19307.032139999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>5.363064</v>
+        <v>5.3630639999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1310.720000</v>
+        <v>1310.72</v>
       </c>
       <c r="S14" s="1">
-        <v>-183.174000</v>
+        <v>-183.17400000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>19317.205552</v>
+        <v>19317.205551999999</v>
       </c>
       <c r="V14" s="1">
-        <v>5.365890</v>
+        <v>5.3658900000000003</v>
       </c>
       <c r="W14" s="1">
-        <v>1323.540000</v>
+        <v>1323.54</v>
       </c>
       <c r="X14" s="1">
-        <v>-169.831000</v>
+        <v>-169.83099999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>19327.481170</v>
+        <v>19327.481169999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>5.368745</v>
+        <v>5.3687449999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1340.480000</v>
+        <v>1340.48</v>
       </c>
       <c r="AC14" s="1">
-        <v>-168.093000</v>
+        <v>-168.09299999999999</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>19337.596117</v>
+        <v>19337.596117000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>5.371554</v>
+        <v>5.3715539999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1353.160000</v>
+        <v>1353.16</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.048000</v>
+        <v>-178.048</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>19347.787383</v>
+        <v>19347.787382999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>5.374385</v>
+        <v>5.3743850000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1373.660000</v>
+        <v>1373.66</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.415000</v>
+        <v>-208.41499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>19358.906200</v>
+        <v>19358.906200000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>5.377474</v>
+        <v>5.3774740000000003</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1395.280000</v>
+        <v>1395.28</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.647000</v>
+        <v>-252.64699999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>19370.294878</v>
+        <v>19370.294878000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>5.380637</v>
+        <v>5.3806370000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1419.970000</v>
+        <v>1419.97</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.929000</v>
+        <v>-312.92899999999997</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>19381.377452</v>
+        <v>19381.377452000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>5.383716</v>
+        <v>5.3837159999999997</v>
       </c>
       <c r="BA14" s="1">
-        <v>1439.400000</v>
+        <v>1439.4</v>
       </c>
       <c r="BB14" s="1">
-        <v>-365.208000</v>
+        <v>-365.20800000000003</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>19392.828124</v>
       </c>
       <c r="BE14" s="1">
-        <v>5.386897</v>
+        <v>5.3868970000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1525.280000</v>
+        <v>1525.28</v>
       </c>
       <c r="BG14" s="1">
-        <v>-613.891000</v>
+        <v>-613.89099999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>19404.569389</v>
       </c>
       <c r="BJ14" s="1">
-        <v>5.390158</v>
+        <v>5.3901579999999996</v>
       </c>
       <c r="BK14" s="1">
-        <v>1680.600000</v>
+        <v>1680.6</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1058.920000</v>
+        <v>-1058.92</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>19415.616286</v>
       </c>
       <c r="BO14" s="1">
-        <v>5.393227</v>
+        <v>5.3932270000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1976.470000</v>
+        <v>1976.47</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1829.260000</v>
+        <v>-1829.26</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>19426.939982</v>
       </c>
       <c r="BT14" s="1">
-        <v>5.396372</v>
+        <v>5.3963720000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>2367.680000</v>
+        <v>2367.6799999999998</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2719.520000</v>
+        <v>-2719.52</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>19438.410431</v>
       </c>
       <c r="BY14" s="1">
-        <v>5.399558</v>
+        <v>5.3995579999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2852.060000</v>
+        <v>2852.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3685.690000</v>
+        <v>-3685.69</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>19450.453331</v>
+        <v>19450.453331000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>5.402904</v>
+        <v>5.4029040000000004</v>
       </c>
       <c r="CE14" s="1">
-        <v>4272.280000</v>
+        <v>4272.28</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6007.780000</v>
+        <v>-6007.78</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>19276.555926</v>
+        <v>19276.555926000001</v>
       </c>
       <c r="B15" s="1">
-        <v>5.354599</v>
+        <v>5.3545990000000003</v>
       </c>
       <c r="C15" s="1">
-        <v>1240.030000</v>
+        <v>1240.03</v>
       </c>
       <c r="D15" s="1">
-        <v>-305.514000</v>
+        <v>-305.51400000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>19286.987783</v>
       </c>
       <c r="G15" s="1">
-        <v>5.357497</v>
+        <v>5.3574970000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1265.200000</v>
+        <v>1265.2</v>
       </c>
       <c r="I15" s="1">
-        <v>-263.175000</v>
+        <v>-263.17500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>19297.159275</v>
+        <v>19297.159275000002</v>
       </c>
       <c r="L15" s="1">
         <v>5.360322</v>
       </c>
       <c r="M15" s="1">
-        <v>1299.160000</v>
+        <v>1299.1600000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.252000</v>
+        <v>-201.25200000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>19307.460157</v>
+        <v>19307.460157000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>5.363183</v>
+        <v>5.3631830000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>1310.690000</v>
+        <v>1310.69</v>
       </c>
       <c r="S15" s="1">
-        <v>-183.199000</v>
+        <v>-183.19900000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>19317.625699</v>
       </c>
       <c r="V15" s="1">
-        <v>5.366007</v>
+        <v>5.3660069999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>1323.470000</v>
+        <v>1323.47</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.021000</v>
+        <v>-170.02099999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>19327.769843</v>
+        <v>19327.769842999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>5.368825</v>
+        <v>5.3688250000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1340.440000</v>
+        <v>1340.44</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.098000</v>
+        <v>-168.09800000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>19337.940804</v>
+        <v>19337.940804000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>5.371650</v>
+        <v>5.3716499999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1353.220000</v>
+        <v>1353.22</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.115000</v>
+        <v>-178.11500000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>19348.133592</v>
+        <v>19348.133591999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>5.374482</v>
+        <v>5.3744820000000004</v>
       </c>
       <c r="AL15" s="1">
-        <v>1373.640000</v>
+        <v>1373.64</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.424000</v>
+        <v>-208.42400000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>19359.264808</v>
       </c>
       <c r="AP15" s="1">
-        <v>5.377574</v>
+        <v>5.3775740000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1395.340000</v>
+        <v>1395.34</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.667000</v>
+        <v>-252.667</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>19371.021018</v>
+        <v>19371.021017999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>5.380839</v>
+        <v>5.3808389999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1419.980000</v>
+        <v>1419.98</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.938000</v>
+        <v>-312.93799999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>19382.100121</v>
+        <v>19382.100120999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>5.383917</v>
+        <v>5.3839170000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>1439.390000</v>
+        <v>1439.39</v>
       </c>
       <c r="BB15" s="1">
-        <v>-365.217000</v>
+        <v>-365.21699999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>19393.212987</v>
+        <v>19393.212986999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>5.387004</v>
+        <v>5.3870040000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1525.330000</v>
+        <v>1525.33</v>
       </c>
       <c r="BG15" s="1">
-        <v>-613.911000</v>
+        <v>-613.91099999999994</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>19404.944860</v>
+        <v>19404.94486</v>
       </c>
       <c r="BJ15" s="1">
-        <v>5.390262</v>
+        <v>5.3902619999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1680.590000</v>
+        <v>1680.59</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1058.950000</v>
+        <v>-1058.95</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>19416.036893</v>
       </c>
       <c r="BO15" s="1">
-        <v>5.393344</v>
+        <v>5.3933439999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1976.360000</v>
+        <v>1976.36</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1829.380000</v>
+        <v>-1829.38</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>19427.660669</v>
+        <v>19427.660669000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>5.396572</v>
+        <v>5.3965719999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2366.970000</v>
+        <v>2366.9699999999998</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2719.190000</v>
+        <v>-2719.19</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>19438.538927</v>
+        <v>19438.538927000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>5.399594</v>
+        <v>5.3995939999999996</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2852.620000</v>
+        <v>2852.62</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3685.260000</v>
+        <v>-3685.26</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>19450.694351</v>
+        <v>19450.694350999998</v>
       </c>
       <c r="CD15" s="1">
         <v>5.402971</v>
       </c>
       <c r="CE15" s="1">
-        <v>4274.410000</v>
+        <v>4274.41</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6007.100000</v>
+        <v>-6007.1</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>19276.899494</v>
+        <v>19276.899494000001</v>
       </c>
       <c r="B16" s="1">
-        <v>5.354694</v>
+        <v>5.3546940000000003</v>
       </c>
       <c r="C16" s="1">
-        <v>1239.930000</v>
+        <v>1239.93</v>
       </c>
       <c r="D16" s="1">
-        <v>-305.392000</v>
+        <v>-305.392</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>19287.420791</v>
       </c>
       <c r="G16" s="1">
-        <v>5.357617</v>
+        <v>5.3576170000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>1264.040000</v>
+        <v>1264.04</v>
       </c>
       <c r="I16" s="1">
-        <v>-263.626000</v>
+        <v>-263.62599999999998</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>19297.571420</v>
+        <v>19297.57142</v>
       </c>
       <c r="L16" s="1">
-        <v>5.360437</v>
+        <v>5.3604370000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1298.990000</v>
+        <v>1298.99</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.588000</v>
+        <v>-201.58799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>19307.740923</v>
+        <v>19307.740923000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>5.363261</v>
+        <v>5.3632609999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>1310.720000</v>
+        <v>1310.72</v>
       </c>
       <c r="S16" s="1">
-        <v>-183.146000</v>
+        <v>-183.14599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>19317.899951</v>
+        <v>19317.899950999999</v>
       </c>
       <c r="V16" s="1">
-        <v>5.366083</v>
+        <v>5.3660829999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1323.470000</v>
+        <v>1323.47</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.009000</v>
+        <v>-170.00899999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>19328.115585</v>
       </c>
       <c r="AA16" s="1">
-        <v>5.368921</v>
+        <v>5.3689210000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>1340.400000</v>
+        <v>1340.4</v>
       </c>
       <c r="AC16" s="1">
-        <v>-168.328000</v>
+        <v>-168.328</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>19338.284036</v>
+        <v>19338.284036000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>5.371746</v>
+        <v>5.3717459999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1353.110000</v>
+        <v>1353.11</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.081000</v>
+        <v>-178.08099999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>19348.484294</v>
+        <v>19348.484294000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>5.374579</v>
+        <v>5.3745789999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1373.650000</v>
+        <v>1373.65</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.434000</v>
+        <v>-208.434</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>19359.987479</v>
+        <v>19359.987478999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>5.377774</v>
+        <v>5.3777739999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1395.300000</v>
+        <v>1395.3</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.654000</v>
+        <v>-252.654</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>19371.413817</v>
+        <v>19371.413817000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>5.380948</v>
+        <v>5.3809480000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1419.970000</v>
+        <v>1419.97</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.926000</v>
+        <v>-312.92599999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>19382.475097</v>
+        <v>19382.475096999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>5.384021</v>
+        <v>5.3840209999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1439.390000</v>
+        <v>1439.39</v>
       </c>
       <c r="BB16" s="1">
-        <v>-365.149000</v>
+        <v>-365.149</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>19393.595434</v>
+        <v>19393.595433999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>5.387110</v>
+        <v>5.3871099999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1525.360000</v>
+        <v>1525.36</v>
       </c>
       <c r="BG16" s="1">
-        <v>-613.916000</v>
+        <v>-613.91600000000005</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>19405.628347</v>
+        <v>19405.628347000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>5.390452</v>
+        <v>5.3904519999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1680.580000</v>
+        <v>1680.58</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1059.030000</v>
+        <v>-1059.03</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>19416.740253</v>
       </c>
       <c r="BO16" s="1">
-        <v>5.393539</v>
+        <v>5.3935389999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1976.440000</v>
+        <v>1976.44</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1829.370000</v>
+        <v>-1829.37</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>19427.773229</v>
+        <v>19427.773228999999</v>
       </c>
       <c r="BT16" s="1">
         <v>5.396604</v>
       </c>
       <c r="BU16" s="1">
-        <v>2366.690000</v>
+        <v>2366.69</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2719.850000</v>
+        <v>-2719.85</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>19438.982318</v>
+        <v>19438.982317999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>5.399717</v>
+        <v>5.3997169999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2852.670000</v>
+        <v>2852.67</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3685.870000</v>
+        <v>-3685.87</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>19451.214654</v>
+        <v>19451.214653999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>5.403115</v>
+        <v>5.4031149999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>4279.050000</v>
+        <v>4279.05</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6021.050000</v>
+        <v>-6021.05</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>19277.319301</v>
       </c>
       <c r="B17" s="1">
-        <v>5.354811</v>
+        <v>5.3548109999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>1240.060000</v>
+        <v>1240.06</v>
       </c>
       <c r="D17" s="1">
-        <v>-305.349000</v>
+        <v>-305.34899999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>19287.690155</v>
       </c>
       <c r="G17" s="1">
-        <v>5.357692</v>
+        <v>5.3576920000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1264.480000</v>
+        <v>1264.48</v>
       </c>
       <c r="I17" s="1">
-        <v>-263.672000</v>
+        <v>-263.67200000000003</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>19297.871497</v>
       </c>
       <c r="L17" s="1">
-        <v>5.360520</v>
+        <v>5.3605200000000002</v>
       </c>
       <c r="M17" s="1">
-        <v>1299.280000</v>
+        <v>1299.28</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.331000</v>
+        <v>-201.33099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>19308.091067</v>
+        <v>19308.091067000001</v>
       </c>
       <c r="Q17" s="1">
         <v>5.363359</v>
       </c>
       <c r="R17" s="1">
-        <v>1310.840000</v>
+        <v>1310.84</v>
       </c>
       <c r="S17" s="1">
-        <v>-183.187000</v>
+        <v>-183.18700000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>19318.242724</v>
       </c>
       <c r="V17" s="1">
-        <v>5.366179</v>
+        <v>5.3661789999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1323.670000</v>
+        <v>1323.67</v>
       </c>
       <c r="X17" s="1">
-        <v>-169.843000</v>
+        <v>-169.84299999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>19328.469697</v>
       </c>
       <c r="AA17" s="1">
-        <v>5.369019</v>
+        <v>5.3690189999999998</v>
       </c>
       <c r="AB17" s="1">
-        <v>1340.380000</v>
+        <v>1340.38</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.111000</v>
+        <v>-168.11099999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>19338.967524</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.371935</v>
+        <v>5.3719349999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>1353.130000</v>
+        <v>1353.13</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.094000</v>
+        <v>-178.09399999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
         <v>19349.183126</v>
       </c>
       <c r="AK17" s="1">
-        <v>5.374773</v>
+        <v>5.3747730000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1373.610000</v>
+        <v>1373.61</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.435000</v>
+        <v>-208.435</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>19360.346087</v>
+        <v>19360.346087000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>5.377874</v>
+        <v>5.3778740000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1395.330000</v>
+        <v>1395.33</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.624000</v>
+        <v>-252.624</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>19371.774905</v>
+        <v>19371.774904999998</v>
       </c>
       <c r="AU17" s="1">
         <v>5.381049</v>
       </c>
       <c r="AV17" s="1">
-        <v>1419.990000</v>
+        <v>1419.99</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.907000</v>
+        <v>-312.90699999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>19382.858010</v>
+        <v>19382.85801</v>
       </c>
       <c r="AZ17" s="1">
-        <v>5.384127</v>
+        <v>5.3841270000000003</v>
       </c>
       <c r="BA17" s="1">
-        <v>1439.410000</v>
+        <v>1439.41</v>
       </c>
       <c r="BB17" s="1">
-        <v>-365.229000</v>
+        <v>-365.22899999999998</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>19394.254617</v>
+        <v>19394.254616999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>5.387293</v>
+        <v>5.3872929999999997</v>
       </c>
       <c r="BF17" s="1">
-        <v>1525.380000</v>
+        <v>1525.38</v>
       </c>
       <c r="BG17" s="1">
-        <v>-613.875000</v>
+        <v>-613.875</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>19405.736970</v>
+        <v>19405.736970000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>5.390482</v>
+        <v>5.3904820000000004</v>
       </c>
       <c r="BK17" s="1">
-        <v>1680.580000</v>
+        <v>1680.58</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1058.910000</v>
+        <v>-1058.9100000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>19416.851821</v>
       </c>
       <c r="BO17" s="1">
-        <v>5.393570</v>
+        <v>5.3935700000000004</v>
       </c>
       <c r="BP17" s="1">
-        <v>1976.280000</v>
+        <v>1976.28</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1829.250000</v>
+        <v>-1829.25</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>19428.211692</v>
+        <v>19428.211692000001</v>
       </c>
       <c r="BT17" s="1">
         <v>5.396725</v>
       </c>
       <c r="BU17" s="1">
-        <v>2366.330000</v>
+        <v>2366.33</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2719.510000</v>
+        <v>-2719.51</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>19439.402431</v>
+        <v>19439.402430999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>5.399834</v>
+        <v>5.3998340000000002</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2853.130000</v>
+        <v>2853.13</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3685.810000</v>
+        <v>-3685.81</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>19451.733966</v>
       </c>
       <c r="CD17" s="1">
-        <v>5.403259</v>
+        <v>5.4032590000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>4294.770000</v>
+        <v>4294.7700000000004</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6014.640000</v>
+        <v>-6014.64</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>19277.599509</v>
       </c>
@@ -4593,1857 +5009,1857 @@
         <v>5.354889</v>
       </c>
       <c r="C18" s="1">
-        <v>1239.730000</v>
+        <v>1239.73</v>
       </c>
       <c r="D18" s="1">
-        <v>-305.726000</v>
+        <v>-305.726</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>19288.033878</v>
+        <v>19288.033877999998</v>
       </c>
       <c r="G18" s="1">
-        <v>5.357787</v>
+        <v>5.3577870000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1265.250000</v>
+        <v>1265.25</v>
       </c>
       <c r="I18" s="1">
-        <v>-263.583000</v>
+        <v>-263.58300000000003</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>19298.219193</v>
+        <v>19298.219193000001</v>
       </c>
       <c r="L18" s="1">
-        <v>5.360616</v>
+        <v>5.3606160000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>1299.600000</v>
+        <v>1299.5999999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.200000</v>
+        <v>-201.2</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>19308.436779</v>
       </c>
       <c r="Q18" s="1">
-        <v>5.363455</v>
+        <v>5.3634550000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1310.790000</v>
+        <v>1310.79</v>
       </c>
       <c r="S18" s="1">
-        <v>-183.257000</v>
+        <v>-183.25700000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>19318.929656</v>
       </c>
       <c r="V18" s="1">
-        <v>5.366369</v>
+        <v>5.3663689999999997</v>
       </c>
       <c r="W18" s="1">
-        <v>1323.410000</v>
+        <v>1323.41</v>
       </c>
       <c r="X18" s="1">
-        <v>-169.980000</v>
+        <v>-169.98</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>19329.163599</v>
       </c>
       <c r="AA18" s="1">
-        <v>5.369212</v>
+        <v>5.3692120000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1340.340000</v>
+        <v>1340.34</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.088000</v>
+        <v>-168.08799999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>19339.313234</v>
+        <v>19339.313234000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>5.372031</v>
+        <v>5.3720309999999998</v>
       </c>
       <c r="AG18" s="1">
-        <v>1353.140000</v>
+        <v>1353.14</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.146000</v>
+        <v>-178.14599999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>19349.531317</v>
+        <v>19349.531317000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>5.374870</v>
+        <v>5.3748699999999996</v>
       </c>
       <c r="AL18" s="1">
-        <v>1373.610000</v>
+        <v>1373.61</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.426000</v>
+        <v>-208.42599999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>19360.705686</v>
+        <v>19360.705686000001</v>
       </c>
       <c r="AP18" s="1">
         <v>5.377974</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1395.320000</v>
+        <v>1395.32</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.628000</v>
+        <v>-252.62799999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>19372.438055</v>
+        <v>19372.438054999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>5.381233</v>
+        <v>5.3812329999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1419.940000</v>
+        <v>1419.94</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.923000</v>
+        <v>-312.923</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>19383.523514</v>
       </c>
       <c r="AZ18" s="1">
-        <v>5.384312</v>
+        <v>5.3843120000000004</v>
       </c>
       <c r="BA18" s="1">
-        <v>1439.390000</v>
+        <v>1439.39</v>
       </c>
       <c r="BB18" s="1">
-        <v>-365.198000</v>
+        <v>-365.19799999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>19394.681145</v>
+        <v>19394.681144999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>5.387411</v>
+        <v>5.3874110000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1525.300000</v>
+        <v>1525.3</v>
       </c>
       <c r="BG18" s="1">
-        <v>-613.893000</v>
+        <v>-613.89300000000003</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>19406.096074</v>
+        <v>19406.096074000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>5.390582</v>
+        <v>5.3905820000000002</v>
       </c>
       <c r="BK18" s="1">
-        <v>1680.570000</v>
+        <v>1680.57</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1058.940000</v>
+        <v>-1058.94</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>19417.274908</v>
+        <v>19417.274907999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>5.393687</v>
+        <v>5.3936869999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1976.460000</v>
+        <v>1976.46</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1829.060000</v>
+        <v>-1829.06</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>19428.621922</v>
+        <v>19428.621921999998</v>
       </c>
       <c r="BT18" s="1">
-        <v>5.396839</v>
+        <v>5.3968389999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2365.970000</v>
+        <v>2365.9699999999998</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2719.690000</v>
+        <v>-2719.69</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>19439.830513</v>
+        <v>19439.830513000001</v>
       </c>
       <c r="BY18" s="1">
         <v>5.399953</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2853.080000</v>
+        <v>2853.08</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3684.970000</v>
+        <v>-3684.97</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>19452.250797</v>
+        <v>19452.250797000001</v>
       </c>
       <c r="CD18" s="1">
         <v>5.403403</v>
       </c>
       <c r="CE18" s="1">
-        <v>4287.210000</v>
+        <v>4287.21</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5998.290000</v>
+        <v>-5998.29</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>19277.942243</v>
+        <v>19277.942243000001</v>
       </c>
       <c r="B19" s="1">
         <v>5.354984</v>
       </c>
       <c r="C19" s="1">
-        <v>1239.680000</v>
+        <v>1239.68</v>
       </c>
       <c r="D19" s="1">
-        <v>-305.244000</v>
+        <v>-305.24400000000003</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>19288.379559</v>
+        <v>19288.379559000001</v>
       </c>
       <c r="G19" s="1">
-        <v>5.357883</v>
+        <v>5.3578830000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1264.410000</v>
+        <v>1264.4100000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-263.022000</v>
+        <v>-263.02199999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>19298.562425</v>
       </c>
       <c r="L19" s="1">
-        <v>5.360712</v>
+        <v>5.3607120000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>1299.220000</v>
+        <v>1299.22</v>
       </c>
       <c r="N19" s="1">
-        <v>-200.843000</v>
+        <v>-200.84299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>19309.132699</v>
+        <v>19309.132699000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>5.363648</v>
+        <v>5.3636480000000004</v>
       </c>
       <c r="R19" s="1">
-        <v>1310.770000</v>
+        <v>1310.77</v>
       </c>
       <c r="S19" s="1">
-        <v>-183.325000</v>
+        <v>-183.32499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>19319.272381</v>
+        <v>19319.272380999999</v>
       </c>
       <c r="V19" s="1">
-        <v>5.366465</v>
+        <v>5.3664649999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1323.540000</v>
+        <v>1323.54</v>
       </c>
       <c r="X19" s="1">
-        <v>-169.866000</v>
+        <v>-169.86600000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>19329.514271</v>
       </c>
       <c r="AA19" s="1">
-        <v>5.369310</v>
+        <v>5.3693099999999996</v>
       </c>
       <c r="AB19" s="1">
-        <v>1340.420000</v>
+        <v>1340.42</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.088000</v>
+        <v>-168.08799999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>19339.655969</v>
+        <v>19339.655968999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>5.372127</v>
+        <v>5.3721269999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1353.110000</v>
+        <v>1353.11</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.225000</v>
+        <v>-178.22499999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>19349.878052</v>
       </c>
       <c r="AK19" s="1">
-        <v>5.374966</v>
+        <v>5.3749659999999997</v>
       </c>
       <c r="AL19" s="1">
-        <v>1373.610000</v>
+        <v>1373.61</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.414000</v>
+        <v>-208.41399999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>19361.371813</v>
+        <v>19361.371813000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>5.378159</v>
+        <v>5.3781590000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1395.270000</v>
+        <v>1395.27</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.599000</v>
+        <v>-252.59899999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>19372.907594</v>
       </c>
       <c r="AU19" s="1">
-        <v>5.381363</v>
+        <v>5.3813630000000003</v>
       </c>
       <c r="AV19" s="1">
-        <v>1419.930000</v>
+        <v>1419.93</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.946000</v>
+        <v>-312.94600000000003</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>19383.939784</v>
+        <v>19383.939783999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>5.384428</v>
+        <v>5.3844279999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1439.410000</v>
+        <v>1439.41</v>
       </c>
       <c r="BB19" s="1">
-        <v>-365.163000</v>
+        <v>-365.16300000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>19395.069514</v>
+        <v>19395.069513999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>5.387519</v>
+        <v>5.3875190000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1525.340000</v>
+        <v>1525.34</v>
       </c>
       <c r="BG19" s="1">
-        <v>-613.882000</v>
+        <v>-613.88199999999995</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>19406.474061</v>
+        <v>19406.474061000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>5.390687</v>
+        <v>5.3906869999999998</v>
       </c>
       <c r="BK19" s="1">
-        <v>1680.550000</v>
+        <v>1680.55</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1058.870000</v>
+        <v>-1058.8699999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>19417.677690</v>
+        <v>19417.67769</v>
       </c>
       <c r="BO19" s="1">
-        <v>5.393799</v>
+        <v>5.3937989999999996</v>
       </c>
       <c r="BP19" s="1">
-        <v>1976.280000</v>
+        <v>1976.28</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1829.100000</v>
+        <v>-1829.1</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>19429.043980</v>
+        <v>19429.043979999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>5.396957</v>
+        <v>5.3969569999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>2365.750000</v>
+        <v>2365.75</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2719.490000</v>
+        <v>-2719.49</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>19440.251581</v>
       </c>
       <c r="BY19" s="1">
-        <v>5.400070</v>
+        <v>5.4000700000000004</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2852.840000</v>
+        <v>2852.84</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3685.380000</v>
+        <v>-3685.38</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>19452.770110</v>
+        <v>19452.770110000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>5.403547</v>
+        <v>5.4035469999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>4272.100000</v>
+        <v>4272.1000000000004</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6007.090000</v>
+        <v>-6007.09</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>19278.282995</v>
+        <v>19278.282995000001</v>
       </c>
       <c r="B20" s="1">
-        <v>5.355079</v>
+        <v>5.3550789999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1239.840000</v>
+        <v>1239.8399999999999</v>
       </c>
       <c r="D20" s="1">
-        <v>-305.871000</v>
+        <v>-305.87099999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>19289.070022</v>
       </c>
       <c r="G20" s="1">
-        <v>5.358075</v>
+        <v>5.3580750000000004</v>
       </c>
       <c r="H20" s="1">
-        <v>1264.700000</v>
+        <v>1264.7</v>
       </c>
       <c r="I20" s="1">
-        <v>-262.671000</v>
+        <v>-262.67099999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>19299.257351</v>
       </c>
       <c r="L20" s="1">
-        <v>5.360905</v>
+        <v>5.3609049999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1299.470000</v>
+        <v>1299.47</v>
       </c>
       <c r="N20" s="1">
-        <v>-200.999000</v>
+        <v>-200.999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>19309.483833</v>
+        <v>19309.483832999998</v>
       </c>
       <c r="Q20" s="1">
-        <v>5.363746</v>
+        <v>5.3637459999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>1310.690000</v>
+        <v>1310.69</v>
       </c>
       <c r="S20" s="1">
-        <v>-183.221000</v>
+        <v>-183.221</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>19319.618093</v>
+        <v>19319.618093000001</v>
       </c>
       <c r="V20" s="1">
-        <v>5.366561</v>
+        <v>5.3665609999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1323.430000</v>
+        <v>1323.43</v>
       </c>
       <c r="X20" s="1">
-        <v>-169.958000</v>
+        <v>-169.958</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>19329.861532</v>
+        <v>19329.861531999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>5.369406</v>
+        <v>5.3694059999999997</v>
       </c>
       <c r="AB20" s="1">
-        <v>1340.410000</v>
+        <v>1340.41</v>
       </c>
       <c r="AC20" s="1">
-        <v>-167.995000</v>
+        <v>-167.995</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>19340.301264</v>
+        <v>19340.301264000002</v>
       </c>
       <c r="AF20" s="1">
         <v>5.372306</v>
       </c>
       <c r="AG20" s="1">
-        <v>1353.090000</v>
+        <v>1353.09</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.189000</v>
+        <v>-178.18899999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>19350.555555</v>
+        <v>19350.555554999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>5.375154</v>
+        <v>5.3751540000000002</v>
       </c>
       <c r="AL20" s="1">
-        <v>1373.620000</v>
+        <v>1373.62</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.420000</v>
+        <v>-208.42</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>19361.816228</v>
       </c>
       <c r="AP20" s="1">
-        <v>5.378282</v>
+        <v>5.3782819999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1395.290000</v>
+        <v>1395.29</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.614000</v>
+        <v>-252.614</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>19373.272326</v>
+        <v>19373.272325999998</v>
       </c>
       <c r="AU20" s="1">
-        <v>5.381465</v>
+        <v>5.3814650000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1419.960000</v>
+        <v>1419.96</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.913000</v>
+        <v>-312.91300000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>19384.315751</v>
+        <v>19384.315750999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>5.384532</v>
+        <v>5.3845320000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1439.420000</v>
+        <v>1439.42</v>
       </c>
       <c r="BB20" s="1">
-        <v>-365.223000</v>
+        <v>-365.22300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>19395.429640</v>
+        <v>19395.429639999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>5.387619</v>
+        <v>5.3876189999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1525.310000</v>
+        <v>1525.31</v>
       </c>
       <c r="BG20" s="1">
-        <v>-613.867000</v>
+        <v>-613.86699999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>19406.888056</v>
       </c>
       <c r="BJ20" s="1">
-        <v>5.390802</v>
+        <v>5.3908019999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1680.600000</v>
+        <v>1680.6</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1058.890000</v>
+        <v>-1058.8900000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>19418.109674</v>
+        <v>19418.109673999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>5.393919</v>
+        <v>5.3939190000000004</v>
       </c>
       <c r="BP20" s="1">
-        <v>1976.340000</v>
+        <v>1976.34</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1829.190000</v>
+        <v>-1829.19</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>19429.456652</v>
+        <v>19429.456652000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>5.397071</v>
+        <v>5.3970710000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>2365.170000</v>
+        <v>2365.17</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2719.350000</v>
+        <v>-2719.35</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>19440.669212</v>
+        <v>19440.669212000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>5.400186</v>
+        <v>5.4001859999999997</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2852.620000</v>
+        <v>2852.62</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3685.210000</v>
+        <v>-3685.21</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>19453.290411</v>
+        <v>19453.290411000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>5.403692</v>
+        <v>5.4036920000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>4282.290000</v>
+        <v>4282.29</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6020.150000</v>
+        <v>-6020.15</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>19278.966483</v>
       </c>
       <c r="B21" s="1">
-        <v>5.355268</v>
+        <v>5.3552679999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>1239.480000</v>
+        <v>1239.48</v>
       </c>
       <c r="D21" s="1">
-        <v>-305.663000</v>
+        <v>-305.66300000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>19289.414212</v>
       </c>
       <c r="G21" s="1">
-        <v>5.358171</v>
+        <v>5.3581709999999996</v>
       </c>
       <c r="H21" s="1">
-        <v>1264.480000</v>
+        <v>1264.48</v>
       </c>
       <c r="I21" s="1">
-        <v>-264.031000</v>
+        <v>-264.03100000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>19299.601574</v>
       </c>
       <c r="L21" s="1">
-        <v>5.361000</v>
+        <v>5.3609999999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1299.280000</v>
+        <v>1299.28</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.381000</v>
+        <v>-201.381</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>19309.831065</v>
+        <v>19309.831064999998</v>
       </c>
       <c r="Q21" s="1">
         <v>5.363842</v>
       </c>
       <c r="R21" s="1">
-        <v>1310.720000</v>
+        <v>1310.72</v>
       </c>
       <c r="S21" s="1">
-        <v>-183.141000</v>
+        <v>-183.14099999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>19320.264875</v>
+        <v>19320.264875000001</v>
       </c>
       <c r="V21" s="1">
-        <v>5.366740</v>
+        <v>5.3667400000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1323.530000</v>
+        <v>1323.53</v>
       </c>
       <c r="X21" s="1">
-        <v>-169.895000</v>
+        <v>-169.89500000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>19330.521185</v>
+        <v>19330.521185000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>5.369589</v>
+        <v>5.3695890000000004</v>
       </c>
       <c r="AB21" s="1">
-        <v>1340.260000</v>
+        <v>1340.26</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.190000</v>
+        <v>-168.19</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>19340.676747</v>
+        <v>19340.676747000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.372410</v>
+        <v>5.3724100000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>1353.030000</v>
+        <v>1353.03</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.195000</v>
+        <v>-178.19499999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>19350.926563</v>
+        <v>19350.926563000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>5.375257</v>
+        <v>5.3752570000000004</v>
       </c>
       <c r="AL21" s="1">
-        <v>1373.600000</v>
+        <v>1373.6</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.460000</v>
+        <v>-208.46</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>19362.177316</v>
+        <v>19362.177316000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>5.378383</v>
+        <v>5.3783830000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1395.300000</v>
+        <v>1395.3</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.614000</v>
+        <v>-252.614</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>19373.638405</v>
+        <v>19373.638405000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>5.381566</v>
+        <v>5.3815660000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1419.940000</v>
+        <v>1419.94</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.867000</v>
+        <v>-312.86700000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>19384.704158</v>
       </c>
       <c r="AZ21" s="1">
-        <v>5.384640</v>
+        <v>5.3846400000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1439.420000</v>
+        <v>1439.42</v>
       </c>
       <c r="BB21" s="1">
-        <v>-365.219000</v>
+        <v>-365.21899999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
         <v>19395.844759</v>
       </c>
       <c r="BE21" s="1">
-        <v>5.387735</v>
+        <v>5.3877350000000002</v>
       </c>
       <c r="BF21" s="1">
-        <v>1525.350000</v>
+        <v>1525.35</v>
       </c>
       <c r="BG21" s="1">
-        <v>-613.888000</v>
+        <v>-613.88800000000003</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>19407.224968</v>
+        <v>19407.224967999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>5.390896</v>
+        <v>5.3908959999999997</v>
       </c>
       <c r="BK21" s="1">
-        <v>1680.570000</v>
+        <v>1680.57</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1058.840000</v>
+        <v>-1058.8399999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>19418.492622</v>
+        <v>19418.492622000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>5.394026</v>
+        <v>5.3940260000000002</v>
       </c>
       <c r="BP21" s="1">
-        <v>1976.380000</v>
+        <v>1976.38</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1829.130000</v>
+        <v>-1829.13</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>19429.867370</v>
+        <v>19429.86737</v>
       </c>
       <c r="BT21" s="1">
-        <v>5.397185</v>
+        <v>5.3971850000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>2364.940000</v>
+        <v>2364.94</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2719.070000</v>
+        <v>-2719.07</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>19441.113627</v>
+        <v>19441.113626999999</v>
       </c>
       <c r="BY21" s="1">
         <v>5.400309</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2853.310000</v>
+        <v>2853.31</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3685.250000</v>
+        <v>-3685.25</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>19454.131664</v>
       </c>
       <c r="CD21" s="1">
-        <v>5.403925</v>
+        <v>5.4039250000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4293.660000</v>
+        <v>4293.66</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6006.950000</v>
+        <v>-6006.95</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>19279.306737</v>
+        <v>19279.306736999999</v>
       </c>
       <c r="B22" s="1">
-        <v>5.355363</v>
+        <v>5.3553629999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>1239.830000</v>
+        <v>1239.83</v>
       </c>
       <c r="D22" s="1">
-        <v>-305.438000</v>
+        <v>-305.43799999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>19289.757978</v>
+        <v>19289.757978000001</v>
       </c>
       <c r="G22" s="1">
-        <v>5.358266</v>
+        <v>5.3582660000000004</v>
       </c>
       <c r="H22" s="1">
-        <v>1264.660000</v>
+        <v>1264.6600000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-263.228000</v>
+        <v>-263.22800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>19299.949736</v>
+        <v>19299.949735999999</v>
       </c>
       <c r="L22" s="1">
         <v>5.361097</v>
       </c>
       <c r="M22" s="1">
-        <v>1299.310000</v>
+        <v>1299.31</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.013000</v>
+        <v>-201.01300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>19310.486280</v>
+        <v>19310.486280000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>5.364024</v>
+        <v>5.3640239999999997</v>
       </c>
       <c r="R22" s="1">
-        <v>1310.800000</v>
+        <v>1310.8</v>
       </c>
       <c r="S22" s="1">
-        <v>-183.183000</v>
+        <v>-183.18299999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>19320.646827</v>
       </c>
       <c r="V22" s="1">
-        <v>5.366846</v>
+        <v>5.3668459999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>1323.560000</v>
+        <v>1323.56</v>
       </c>
       <c r="X22" s="1">
-        <v>-169.941000</v>
+        <v>-169.941</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>19330.907565</v>
+        <v>19330.907565000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>5.369697</v>
+        <v>5.3696970000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>1340.370000</v>
+        <v>1340.37</v>
       </c>
       <c r="AC22" s="1">
-        <v>-168.079000</v>
+        <v>-168.07900000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>19341.032865</v>
+        <v>19341.032865000001</v>
       </c>
       <c r="AF22" s="1">
         <v>5.372509</v>
       </c>
       <c r="AG22" s="1">
-        <v>1353.120000</v>
+        <v>1353.12</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.096000</v>
+        <v>-178.096</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>19351.271811</v>
+        <v>19351.271810999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>5.375353</v>
+        <v>5.3753529999999996</v>
       </c>
       <c r="AL22" s="1">
-        <v>1373.620000</v>
+        <v>1373.62</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.432000</v>
+        <v>-208.43199999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>19362.537908</v>
+        <v>19362.537907999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>5.378483</v>
+        <v>5.3784830000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1395.300000</v>
+        <v>1395.3</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.659000</v>
+        <v>-252.65899999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>19374.055012</v>
+        <v>19374.055012000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>5.381682</v>
+        <v>5.3816819999999996</v>
       </c>
       <c r="AV22" s="1">
-        <v>1419.950000</v>
+        <v>1419.95</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.929000</v>
+        <v>-312.92899999999997</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>19385.129189</v>
+        <v>19385.129188999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>5.384758</v>
+        <v>5.3847579999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1439.410000</v>
+        <v>1439.41</v>
       </c>
       <c r="BB22" s="1">
-        <v>-365.172000</v>
+        <v>-365.17200000000003</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>19396.154771</v>
+        <v>19396.154771000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>5.387821</v>
+        <v>5.3878209999999997</v>
       </c>
       <c r="BF22" s="1">
-        <v>1525.340000</v>
+        <v>1525.34</v>
       </c>
       <c r="BG22" s="1">
-        <v>-613.887000</v>
+        <v>-613.88699999999994</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>19407.624249</v>
       </c>
       <c r="BJ22" s="1">
-        <v>5.391007</v>
+        <v>5.3910070000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1680.550000</v>
+        <v>1680.55</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1058.840000</v>
+        <v>-1058.8399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>19418.953629</v>
       </c>
       <c r="BO22" s="1">
-        <v>5.394154</v>
+        <v>5.3941540000000003</v>
       </c>
       <c r="BP22" s="1">
-        <v>1976.470000</v>
+        <v>1976.47</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1828.990000</v>
+        <v>-1828.99</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>19430.284984</v>
+        <v>19430.284984000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>5.397301</v>
+        <v>5.3973009999999997</v>
       </c>
       <c r="BU22" s="1">
-        <v>2364.500000</v>
+        <v>2364.5</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2718.370000</v>
+        <v>-2718.37</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>19441.545643</v>
+        <v>19441.545643000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>5.400429</v>
+        <v>5.4004289999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2853.090000</v>
+        <v>2853.09</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3684.640000</v>
+        <v>-3684.64</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>19454.320602</v>
       </c>
       <c r="CD22" s="1">
-        <v>5.403978</v>
+        <v>5.4039780000000004</v>
       </c>
       <c r="CE22" s="1">
-        <v>4277.810000</v>
+        <v>4277.8100000000004</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5998.200000</v>
+        <v>-5998.2</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>19279.649264</v>
       </c>
       <c r="B23" s="1">
-        <v>5.355458</v>
+        <v>5.3554579999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>1239.690000</v>
+        <v>1239.69</v>
       </c>
       <c r="D23" s="1">
-        <v>-305.667000</v>
+        <v>-305.66699999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>19290.406211</v>
+        <v>19290.406211000001</v>
       </c>
       <c r="G23" s="1">
-        <v>5.358446</v>
+        <v>5.3584459999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>1264.220000</v>
+        <v>1264.22</v>
       </c>
       <c r="I23" s="1">
-        <v>-263.154000</v>
+        <v>-263.154</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>19300.609910</v>
+        <v>19300.609909999999</v>
       </c>
       <c r="L23" s="1">
         <v>5.361281</v>
       </c>
       <c r="M23" s="1">
-        <v>1299.410000</v>
+        <v>1299.4100000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-200.910000</v>
+        <v>-200.91</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>19310.878584</v>
+        <v>19310.878583999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>5.364133</v>
+        <v>5.3641329999999998</v>
       </c>
       <c r="R23" s="1">
-        <v>1310.780000</v>
+        <v>1310.78</v>
       </c>
       <c r="S23" s="1">
-        <v>-183.230000</v>
+        <v>-183.23</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>19320.993002</v>
+        <v>19320.993001999999</v>
       </c>
       <c r="V23" s="1">
         <v>5.366943</v>
       </c>
       <c r="W23" s="1">
-        <v>1323.390000</v>
+        <v>1323.39</v>
       </c>
       <c r="X23" s="1">
-        <v>-169.788000</v>
+        <v>-169.78800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>19331.257246</v>
+        <v>19331.257246000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>5.369794</v>
+        <v>5.3697939999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>1340.300000</v>
+        <v>1340.3</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.020000</v>
+        <v>-168.02</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>19341.382080</v>
+        <v>19341.382079999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>5.372606</v>
+        <v>5.3726060000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>1352.950000</v>
+        <v>1352.95</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.349000</v>
+        <v>-178.34899999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>19351.706313</v>
+        <v>19351.706312999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>5.375474</v>
+        <v>5.3754739999999996</v>
       </c>
       <c r="AL23" s="1">
-        <v>1373.620000</v>
+        <v>1373.62</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.446000</v>
+        <v>-208.446</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>19362.958516</v>
+        <v>19362.958515999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>5.378600</v>
+        <v>5.3785999999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1395.270000</v>
+        <v>1395.27</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.624000</v>
+        <v>-252.624</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>19374.363524</v>
       </c>
       <c r="AU23" s="1">
-        <v>5.381768</v>
+        <v>5.3817680000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1419.930000</v>
+        <v>1419.93</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.893000</v>
+        <v>-312.89299999999997</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>19385.421829</v>
+        <v>19385.421828999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>5.384839</v>
+        <v>5.3848390000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>1439.410000</v>
+        <v>1439.41</v>
       </c>
       <c r="BB23" s="1">
-        <v>-365.195000</v>
+        <v>-365.19499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>19396.514854</v>
+        <v>19396.514854000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>5.387921</v>
+        <v>5.3879210000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1525.330000</v>
+        <v>1525.33</v>
       </c>
       <c r="BG23" s="1">
-        <v>-613.870000</v>
+        <v>-613.87</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>19407.998231</v>
+        <v>19407.998231000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>5.391111</v>
+        <v>5.3911110000000004</v>
       </c>
       <c r="BK23" s="1">
-        <v>1680.590000</v>
+        <v>1680.59</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1058.860000</v>
+        <v>-1058.8599999999999</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>19419.641822</v>
+        <v>19419.641822000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>5.394345</v>
+        <v>5.3943450000000004</v>
       </c>
       <c r="BP23" s="1">
-        <v>1976.310000</v>
+        <v>1976.31</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1828.930000</v>
+        <v>-1828.93</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>19430.703097</v>
+        <v>19430.703097000001</v>
       </c>
       <c r="BT23" s="1">
         <v>5.397418</v>
       </c>
       <c r="BU23" s="1">
-        <v>2363.990000</v>
+        <v>2363.9899999999998</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2718.470000</v>
+        <v>-2718.47</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>19441.960300</v>
+        <v>19441.960299999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>5.400545</v>
+        <v>5.4005450000000002</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2853.340000</v>
+        <v>2853.34</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3684.720000</v>
+        <v>-3684.72</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>19454.842890</v>
+        <v>19454.84289</v>
       </c>
       <c r="CD23" s="1">
-        <v>5.404123</v>
+        <v>5.4041230000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>4280.400000</v>
+        <v>4280.3999999999996</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5997.150000</v>
+        <v>-5997.15</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>19280.296288</v>
+        <v>19280.296288000001</v>
       </c>
       <c r="B24" s="1">
-        <v>5.355638</v>
+        <v>5.3556379999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1239.600000</v>
+        <v>1239.5999999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-305.334000</v>
+        <v>-305.334</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>19290.793587</v>
       </c>
       <c r="G24" s="1">
-        <v>5.358554</v>
+        <v>5.3585539999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1264.340000</v>
+        <v>1264.3399999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-263.044000</v>
+        <v>-263.04399999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>19300.984426</v>
+        <v>19300.984425999999</v>
       </c>
       <c r="L24" s="1">
-        <v>5.361385</v>
+        <v>5.3613850000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>1299.420000</v>
+        <v>1299.42</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.180000</v>
+        <v>-201.18</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>19311.225288</v>
+        <v>19311.225288000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>5.364229</v>
+        <v>5.3642289999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>1310.750000</v>
+        <v>1310.75</v>
       </c>
       <c r="S24" s="1">
-        <v>-183.324000</v>
+        <v>-183.32400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>19321.335738</v>
+        <v>19321.335738000002</v>
       </c>
       <c r="V24" s="1">
         <v>5.367038</v>
       </c>
       <c r="W24" s="1">
-        <v>1323.470000</v>
+        <v>1323.47</v>
       </c>
       <c r="X24" s="1">
-        <v>-169.932000</v>
+        <v>-169.93199999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>19331.602460</v>
+        <v>19331.602459999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>5.369890</v>
+        <v>5.3698899999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1340.370000</v>
+        <v>1340.37</v>
       </c>
       <c r="AC24" s="1">
-        <v>-167.942000</v>
+        <v>-167.94200000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>19341.804144</v>
+        <v>19341.804144000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>5.372723</v>
+        <v>5.3727229999999997</v>
       </c>
       <c r="AG24" s="1">
-        <v>1353.100000</v>
+        <v>1353.1</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.123000</v>
+        <v>-178.12299999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>19352.319330</v>
+        <v>19352.319329999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>5.375644</v>
+        <v>5.3756440000000003</v>
       </c>
       <c r="AL24" s="1">
-        <v>1373.650000</v>
+        <v>1373.65</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.412000</v>
+        <v>-208.41200000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>19363.257106</v>
+        <v>19363.257106000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>5.378683</v>
+        <v>5.3786829999999997</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1395.300000</v>
+        <v>1395.3</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.636000</v>
+        <v>-252.636</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>19374.727091</v>
+        <v>19374.727091000001</v>
       </c>
       <c r="AU24" s="1">
         <v>5.381869</v>
       </c>
       <c r="AV24" s="1">
-        <v>1419.920000</v>
+        <v>1419.92</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.926000</v>
+        <v>-312.92599999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>19385.792341</v>
       </c>
       <c r="AZ24" s="1">
-        <v>5.384942</v>
+        <v>5.3849419999999997</v>
       </c>
       <c r="BA24" s="1">
-        <v>1439.420000</v>
+        <v>1439.42</v>
       </c>
       <c r="BB24" s="1">
-        <v>-365.173000</v>
+        <v>-365.173</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>19396.877934</v>
       </c>
       <c r="BE24" s="1">
-        <v>5.388022</v>
+        <v>5.3880220000000003</v>
       </c>
       <c r="BF24" s="1">
-        <v>1525.300000</v>
+        <v>1525.3</v>
       </c>
       <c r="BG24" s="1">
-        <v>-613.820000</v>
+        <v>-613.82000000000005</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>19408.750199</v>
+        <v>19408.750198999998</v>
       </c>
       <c r="BJ24" s="1">
-        <v>5.391319</v>
+        <v>5.3913190000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1680.570000</v>
+        <v>1680.57</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1058.830000</v>
+        <v>-1058.83</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>19420.126936</v>
+        <v>19420.126936000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>5.394480</v>
+        <v>5.3944799999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1976.270000</v>
+        <v>1976.27</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1829.020000</v>
+        <v>-1829.02</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>19431.117754</v>
+        <v>19431.117753999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>5.397533</v>
+        <v>5.3975330000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2364.020000</v>
+        <v>2364.02</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2717.970000</v>
+        <v>-2717.97</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>19442.407195</v>
       </c>
       <c r="BY24" s="1">
-        <v>5.400669</v>
+        <v>5.4006689999999997</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2852.350000</v>
+        <v>2852.35</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3684.580000</v>
+        <v>-3684.58</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>19455.695049</v>
+        <v>19455.695049000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>5.404360</v>
+        <v>5.4043599999999996</v>
       </c>
       <c r="CE24" s="1">
-        <v>4292.250000</v>
+        <v>4292.25</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6005.270000</v>
+        <v>-6005.27</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>19280.675728</v>
+        <v>19280.675727999998</v>
       </c>
       <c r="B25" s="1">
-        <v>5.355743</v>
+        <v>5.3557430000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>1239.540000</v>
+        <v>1239.54</v>
       </c>
       <c r="D25" s="1">
-        <v>-305.611000</v>
+        <v>-305.61099999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>19291.139299</v>
+        <v>19291.139298999999</v>
       </c>
       <c r="G25" s="1">
-        <v>5.358650</v>
+        <v>5.3586499999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1264.350000</v>
+        <v>1264.3499999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-262.846000</v>
+        <v>-262.846</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>19301.332582</v>
+        <v>19301.332581999999</v>
       </c>
       <c r="L25" s="1">
-        <v>5.361481</v>
+        <v>5.3614810000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>1299.310000</v>
+        <v>1299.31</v>
       </c>
       <c r="N25" s="1">
-        <v>-200.897000</v>
+        <v>-200.89699999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>19311.575959</v>
+        <v>19311.575959000002</v>
       </c>
       <c r="Q25" s="1">
-        <v>5.364327</v>
+        <v>5.3643270000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>1310.730000</v>
+        <v>1310.73</v>
       </c>
       <c r="S25" s="1">
-        <v>-183.214000</v>
+        <v>-183.214</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>19321.771257</v>
@@ -6452,452 +6868,453 @@
         <v>5.367159</v>
       </c>
       <c r="W25" s="1">
-        <v>1323.450000</v>
+        <v>1323.45</v>
       </c>
       <c r="X25" s="1">
-        <v>-169.930000</v>
+        <v>-169.93</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>19332.016125</v>
+        <v>19332.016124999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>5.370004</v>
+        <v>5.3700039999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1340.340000</v>
+        <v>1340.34</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.201000</v>
+        <v>-168.20099999999999</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>19342.080452</v>
+        <v>19342.080451999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>5.372800</v>
+        <v>5.3727999999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1353.130000</v>
+        <v>1353.13</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.096000</v>
+        <v>-178.096</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>19352.665569</v>
+        <v>19352.665569000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>5.375740</v>
+        <v>5.3757400000000004</v>
       </c>
       <c r="AL25" s="1">
-        <v>1373.620000</v>
+        <v>1373.62</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.461000</v>
+        <v>-208.46100000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>19363.616237</v>
+        <v>19363.616236999998</v>
       </c>
       <c r="AP25" s="1">
-        <v>5.378782</v>
+        <v>5.3787820000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1395.260000</v>
+        <v>1395.26</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.598000</v>
+        <v>-252.59800000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>19375.093171</v>
       </c>
       <c r="AU25" s="1">
-        <v>5.381970</v>
+        <v>5.3819699999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1419.940000</v>
+        <v>1419.94</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.907000</v>
+        <v>-312.90699999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>19386.497652</v>
+        <v>19386.497651999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>5.385138</v>
+        <v>5.3851380000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1439.400000</v>
+        <v>1439.4</v>
       </c>
       <c r="BB25" s="1">
-        <v>-365.196000</v>
+        <v>-365.19600000000003</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>19397.599141</v>
+        <v>19397.599140999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>5.388222</v>
+        <v>5.3882219999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1525.310000</v>
+        <v>1525.31</v>
       </c>
       <c r="BG25" s="1">
-        <v>-613.852000</v>
+        <v>-613.85199999999998</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>19409.123654</v>
+        <v>19409.123653999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>5.391423</v>
+        <v>5.3914229999999996</v>
       </c>
       <c r="BK25" s="1">
-        <v>1680.570000</v>
+        <v>1680.57</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1058.790000</v>
+        <v>-1058.79</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>19420.523703</v>
+        <v>19420.523702999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>5.394590</v>
+        <v>5.39459</v>
       </c>
       <c r="BP25" s="1">
-        <v>1976.270000</v>
+        <v>1976.27</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1828.940000</v>
+        <v>-1828.94</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>19431.534392</v>
+        <v>19431.534392000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>5.397648</v>
+        <v>5.3976480000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>2363.500000</v>
+        <v>2363.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2717.700000</v>
+        <v>-2717.7</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>19443.152681</v>
       </c>
       <c r="BY25" s="1">
-        <v>5.400876</v>
+        <v>5.4008760000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2852.680000</v>
+        <v>2852.68</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3684.820000</v>
+        <v>-3684.82</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>19455.923672</v>
+        <v>19455.923672000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>5.404423</v>
+        <v>5.4044230000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>4275.710000</v>
+        <v>4275.71</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6001.020000</v>
+        <v>-6001.02</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>19281.023391</v>
+        <v>19281.023390999999</v>
       </c>
       <c r="B26" s="1">
-        <v>5.355840</v>
+        <v>5.3558399999999997</v>
       </c>
       <c r="C26" s="1">
-        <v>1240.240000</v>
+        <v>1240.24</v>
       </c>
       <c r="D26" s="1">
-        <v>-305.607000</v>
+        <v>-305.60700000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>19291.481538</v>
       </c>
       <c r="G26" s="1">
-        <v>5.358745</v>
+        <v>5.3587449999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1263.900000</v>
+        <v>1263.9000000000001</v>
       </c>
       <c r="I26" s="1">
-        <v>-262.314000</v>
+        <v>-262.31400000000002</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>19301.868789</v>
       </c>
       <c r="L26" s="1">
-        <v>5.361630</v>
+        <v>5.3616299999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>1299.370000</v>
+        <v>1299.3699999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.420000</v>
+        <v>-201.42</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>19311.986647</v>
+        <v>19311.986647000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>5.364441</v>
+        <v>5.3644410000000002</v>
       </c>
       <c r="R26" s="1">
-        <v>1310.710000</v>
+        <v>1310.71</v>
       </c>
       <c r="S26" s="1">
-        <v>-183.161000</v>
+        <v>-183.161</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>19322.051961</v>
+        <v>19322.051961000001</v>
       </c>
       <c r="V26" s="1">
-        <v>5.367237</v>
+        <v>5.3672370000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>1323.480000</v>
+        <v>1323.48</v>
       </c>
       <c r="X26" s="1">
-        <v>-169.867000</v>
+        <v>-169.86699999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>19332.311301</v>
+        <v>19332.311301000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>5.370086</v>
+        <v>5.3700859999999997</v>
       </c>
       <c r="AB26" s="1">
-        <v>1340.420000</v>
+        <v>1340.42</v>
       </c>
       <c r="AC26" s="1">
-        <v>-168.256000</v>
+        <v>-168.256</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>19342.425134</v>
+        <v>19342.425134000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>5.372896</v>
+        <v>5.3728959999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1353.160000</v>
+        <v>1353.16</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.072000</v>
+        <v>-178.072</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>19353.017697</v>
+        <v>19353.017696999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>5.375838</v>
+        <v>5.3758379999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1373.610000</v>
+        <v>1373.61</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.472000</v>
+        <v>-208.47200000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>19363.975810</v>
+        <v>19363.97581</v>
       </c>
       <c r="AP26" s="1">
-        <v>5.378882</v>
+        <v>5.3788819999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1395.270000</v>
+        <v>1395.27</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.635000</v>
+        <v>-252.63499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>19375.823747</v>
+        <v>19375.823746999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>5.382173</v>
+        <v>5.3821729999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1419.950000</v>
+        <v>1419.95</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.899000</v>
+        <v>-312.899</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>19386.881060</v>
+        <v>19386.88106</v>
       </c>
       <c r="AZ26" s="1">
-        <v>5.385245</v>
+        <v>5.3852450000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>1439.360000</v>
+        <v>1439.36</v>
       </c>
       <c r="BB26" s="1">
-        <v>-365.174000</v>
+        <v>-365.17399999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>19397.986995</v>
+        <v>19397.986994999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>5.388330</v>
+        <v>5.3883299999999998</v>
       </c>
       <c r="BF26" s="1">
-        <v>1525.310000</v>
+        <v>1525.31</v>
       </c>
       <c r="BG26" s="1">
-        <v>-613.824000</v>
+        <v>-613.82399999999996</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>19409.499653</v>
+        <v>19409.499652999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>5.391528</v>
+        <v>5.3915280000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1680.540000</v>
+        <v>1680.54</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1058.750000</v>
+        <v>-1058.75</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>19421.250353</v>
+        <v>19421.250352999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>5.394792</v>
+        <v>5.3947919999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1976.350000</v>
+        <v>1976.35</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1828.790000</v>
+        <v>-1828.79</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>19432.242680</v>
+        <v>19432.242679999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>5.397845</v>
+        <v>5.3978450000000002</v>
       </c>
       <c r="BU26" s="1">
-        <v>2363.800000</v>
+        <v>2363.8000000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2717.220000</v>
+        <v>-2717.22</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>19443.273706</v>
       </c>
       <c r="BY26" s="1">
-        <v>5.400909</v>
+        <v>5.4009090000000004</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2852.340000</v>
+        <v>2852.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3684.540000</v>
+        <v>-3684.54</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>19456.439511</v>
       </c>
       <c r="CD26" s="1">
-        <v>5.404567</v>
+        <v>5.4045670000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4275.120000</v>
+        <v>4275.12</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6018.080000</v>
+        <v>-6018.08</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>